--- a/JoshiProject1.xlsx
+++ b/JoshiProject1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Spot</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>DP+DC = ZC</t>
+  </si>
+  <si>
+    <t>MC Price</t>
+  </si>
+  <si>
+    <t>BSPrice</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10917722788796001"/>
+          <c:x val="0.1091772278879601"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -1536,11 +1542,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81680256"/>
-        <c:axId val="81715584"/>
+        <c:axId val="53856128"/>
+        <c:axId val="55050624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81680256"/>
+        <c:axId val="53856128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,12 +1571,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81715584"/>
+        <c:crossAx val="55050624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81715584"/>
+        <c:axId val="55050624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1602,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81680256"/>
+        <c:crossAx val="53856128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1608,7 +1614,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1624,8 +1630,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26891632006966243"/>
-          <c:y val="2.8275009877756621E-2"/>
+          <c:x val="0.26891632006966304"/>
+          <c:y val="2.8275009877756649E-2"/>
           <c:w val="0.6738373047041657"/>
           <c:h val="0.8971166436276885"/>
         </c:manualLayout>
@@ -2952,23 +2958,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81864576"/>
-        <c:axId val="81866112"/>
+        <c:axId val="55089024"/>
+        <c:axId val="55090560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81864576"/>
+        <c:axId val="55089024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81866112"/>
+        <c:crossAx val="55090560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81866112"/>
+        <c:axId val="55090560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,7 +2982,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81864576"/>
+        <c:crossAx val="55089024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2988,7 +2994,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3026,8 +3032,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10951222115528757"/>
-          <c:y val="6.4986002424438482E-3"/>
+          <c:x val="0.10951222115528771"/>
+          <c:y val="6.4986002424438577E-3"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -3039,7 +3045,7 @@
           <c:yMode val="edge"/>
           <c:x val="8.4488407699037621E-2"/>
           <c:y val="0.19461706996942271"/>
-          <c:w val="0.85871446655282746"/>
+          <c:w val="0.85871446655282824"/>
           <c:h val="0.63890604507981763"/>
         </c:manualLayout>
       </c:layout>
@@ -3380,23 +3386,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81894016"/>
-        <c:axId val="81912192"/>
+        <c:axId val="55106176"/>
+        <c:axId val="55452032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81894016"/>
+        <c:axId val="55106176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81912192"/>
+        <c:crossAx val="55452032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81912192"/>
+        <c:axId val="55452032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3404,7 +3410,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81894016"/>
+        <c:crossAx val="55106176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3413,7 +3419,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3430,10 +3436,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25478018372703426"/>
-          <c:y val="6.9852153885822457E-2"/>
+          <c:x val="0.25478018372703432"/>
+          <c:y val="6.9852153885822513E-2"/>
           <c:w val="0.68596981627296583"/>
-          <c:h val="0.79841818205655968"/>
+          <c:h val="0.79841818205655957"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3767,23 +3773,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81919360"/>
-        <c:axId val="90707072"/>
+        <c:axId val="55459200"/>
+        <c:axId val="55481472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81919360"/>
+        <c:axId val="55459200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90707072"/>
+        <c:crossAx val="55481472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90707072"/>
+        <c:axId val="55481472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3791,7 +3797,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81919360"/>
+        <c:crossAx val="55459200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3803,7 +3809,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4104,11 +4110,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="90739456"/>
-        <c:axId val="90741376"/>
+        <c:axId val="55505664"/>
+        <c:axId val="55507584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90739456"/>
+        <c:axId val="55505664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4117,12 +4123,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90741376"/>
+        <c:crossAx val="55507584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90741376"/>
+        <c:axId val="55507584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4132,7 +4138,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90739456"/>
+        <c:crossAx val="55505664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4141,7 +4147,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4587,14 +4593,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S347"/>
+  <dimension ref="A1:S361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G342" sqref="G342"/>
+    <sheetView tabSelected="1" topLeftCell="B357" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G361" sqref="G361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" customWidth="1"/>
     <col min="18" max="18" width="8.140625" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" customWidth="1"/>
@@ -4674,7 +4681,7 @@
         <v>5</v>
       </c>
       <c r="I3">
-        <f>BSCallWithParams(C3:H3)</f>
+        <f t="shared" ref="I3:I34" si="0">BSCallWithParams(C3:H3)</f>
         <v>1.3266906748631967E-3</v>
       </c>
       <c r="J3">
@@ -4694,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f>BSPutWithParams(C3:H3)</f>
+        <f t="shared" ref="N3:N34" si="1">BSPutWithParams(C3:H3)</f>
         <v>52.881404997815352</v>
       </c>
       <c r="O3">
@@ -4702,7 +4709,7 @@
         <v>-52.880078307140487</v>
       </c>
       <c r="P3">
-        <f>BSForwardWithParams(C3:H3)</f>
+        <f t="shared" ref="P3:P34" si="2">BSForwardWithParams(C3:H3)</f>
         <v>-52.880078307140494</v>
       </c>
       <c r="Q3" t="b">
@@ -4738,47 +4745,47 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <f>BSCallWithParams(C4:H4)</f>
+        <f t="shared" si="0"/>
         <v>3.279823947673878E-3</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="0">C4</f>
+        <f t="shared" ref="J4:J67" si="3">C4</f>
         <v>27</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K67" si="1">I4</f>
+        <f t="shared" ref="K4:K67" si="4">I4</f>
         <v>3.279823947673878E-3</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L67" si="2">MAX(0,J4-D4)</f>
+        <f t="shared" ref="L4:L67" si="5">MAX(0,J4-D4)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M67" si="3">MAX(0,J4-D4*EXP(-E4*H4))</f>
+        <f t="shared" ref="M4:M67" si="6">MAX(0,J4-D4*EXP(-E4*H4))</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>BSPutWithParams(C4:H4)</f>
+        <f t="shared" si="1"/>
         <v>50.883358131088166</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O67" si="4">K4-N4</f>
+        <f t="shared" ref="O4:O67" si="7">K4-N4</f>
         <v>-50.880078307140494</v>
       </c>
       <c r="P4">
-        <f>BSForwardWithParams(C4:H4)</f>
+        <f t="shared" si="2"/>
         <v>-50.880078307140494</v>
       </c>
       <c r="Q4" t="b">
-        <f t="shared" ref="Q4:Q67" si="5">(O4=P4)</f>
+        <f t="shared" ref="Q4:Q67" si="8">(O4=P4)</f>
         <v>1</v>
       </c>
       <c r="R4" t="b">
-        <f t="shared" ref="R4:R67" si="6">(K4&lt;=C4)</f>
+        <f t="shared" ref="R4:R67" si="9">(K4&lt;=C4)</f>
         <v>1</v>
       </c>
       <c r="S4" t="b">
-        <f t="shared" ref="S4:S67" si="7">K4&gt;=P4</f>
+        <f t="shared" ref="S4:S67" si="10">K4&gt;=P4</f>
         <v>1</v>
       </c>
     </row>
@@ -4802,47 +4809,47 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <f>BSCallWithParams(C5:H5)</f>
+        <f t="shared" si="0"/>
         <v>7.2883896724374314E-3</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="K5">
+        <f t="shared" si="4"/>
+        <v>7.2883896724374314E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="1"/>
-        <v>7.2883896724374314E-3</v>
-      </c>
-      <c r="L5">
+        <v>48.887366696812933</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>-48.880078307140494</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f>BSPutWithParams(C5:H5)</f>
-        <v>48.887366696812933</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="4"/>
         <v>-48.880078307140494</v>
       </c>
-      <c r="P5">
-        <f>BSForwardWithParams(C5:H5)</f>
-        <v>-48.880078307140494</v>
-      </c>
       <c r="Q5" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R5" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S5" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -4866,47 +4873,47 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f>BSCallWithParams(C6:H6)</f>
+        <f t="shared" si="0"/>
         <v>1.4812965132636524E-2</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K6">
+        <f t="shared" si="4"/>
+        <v>1.4812965132636524E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="1"/>
-        <v>1.4812965132636524E-2</v>
-      </c>
-      <c r="L6">
+        <v>46.894891272273128</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>-46.880078307140494</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>BSPutWithParams(C6:H6)</f>
-        <v>46.894891272273128</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="4"/>
-        <v>-46.880078307140494</v>
-      </c>
-      <c r="P6">
-        <f>BSForwardWithParams(C6:H6)</f>
         <v>-46.880078307140487</v>
       </c>
       <c r="Q6" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R6" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S6" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -4930,47 +4937,47 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <f>BSCallWithParams(C7:H7)</f>
+        <f t="shared" si="0"/>
         <v>2.7915106912517418E-2</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="K7">
+        <f t="shared" si="4"/>
+        <v>2.7915106912517418E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="1"/>
-        <v>2.7915106912517418E-2</v>
-      </c>
-      <c r="L7">
+        <v>44.907993414053003</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>-44.880078307140487</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f>BSPutWithParams(C7:H7)</f>
-        <v>44.907993414053003</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="4"/>
-        <v>-44.880078307140487</v>
-      </c>
-      <c r="P7">
-        <f>BSForwardWithParams(C7:H7)</f>
         <v>-44.880078307140494</v>
       </c>
       <c r="Q7" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R7" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S7" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -4994,47 +5001,47 @@
         <v>5</v>
       </c>
       <c r="I8">
-        <f>BSCallWithParams(C8:H8)</f>
+        <f t="shared" si="0"/>
         <v>4.9318137738655454E-2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="K8">
+        <f t="shared" si="4"/>
+        <v>4.9318137738655454E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="1"/>
-        <v>4.9318137738655454E-2</v>
-      </c>
-      <c r="L8">
+        <v>42.929396444879146</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>-42.880078307140494</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f>BSPutWithParams(C8:H8)</f>
-        <v>42.929396444879146</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="4"/>
-        <v>-42.880078307140494</v>
-      </c>
-      <c r="P8">
-        <f>BSForwardWithParams(C8:H8)</f>
         <v>-42.880078307140487</v>
       </c>
       <c r="Q8" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R8" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S8" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5058,47 +5065,47 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <f>BSCallWithParams(C9:H9)</f>
+        <f t="shared" si="0"/>
         <v>8.2420248196138801E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="K9">
+        <f t="shared" si="4"/>
+        <v>8.2420248196138801E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="1"/>
-        <v>8.2420248196138801E-2</v>
-      </c>
-      <c r="L9">
+        <v>40.96249855533663</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>-40.880078307140494</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f>BSPutWithParams(C9:H9)</f>
-        <v>40.96249855533663</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="4"/>
-        <v>-40.880078307140494</v>
-      </c>
-      <c r="P9">
-        <f>BSForwardWithParams(C9:H9)</f>
         <v>-40.880078307140487</v>
       </c>
       <c r="Q9" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R9" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5122,47 +5129,47 @@
         <v>5</v>
       </c>
       <c r="I10">
-        <f>BSCallWithParams(C10:H10)</f>
+        <f t="shared" si="0"/>
         <v>0.13125633104126022</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.13125633104126022</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="1"/>
-        <v>0.13125633104126022</v>
-      </c>
-      <c r="L10">
+        <v>39.011334638181751</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>-38.880078307140494</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f>BSPutWithParams(C10:H10)</f>
-        <v>39.011334638181751</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="4"/>
         <v>-38.880078307140494</v>
       </c>
-      <c r="P10">
-        <f>BSForwardWithParams(C10:H10)</f>
-        <v>-38.880078307140494</v>
-      </c>
       <c r="Q10" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R10" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S10" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5186,47 +5193,47 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <f>BSCallWithParams(C11:H11)</f>
+        <f t="shared" si="0"/>
         <v>0.20041191489970878</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0.20041191489970878</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="1"/>
-        <v>0.20041191489970878</v>
-      </c>
-      <c r="L11">
+        <v>37.080490222040204</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>-36.880078307140494</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f>BSPutWithParams(C11:H11)</f>
-        <v>37.080490222040204</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="4"/>
-        <v>-36.880078307140494</v>
-      </c>
-      <c r="P11">
-        <f>BSForwardWithParams(C11:H11)</f>
         <v>-36.880078307140487</v>
       </c>
       <c r="Q11" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R11" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S11" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5250,47 +5257,47 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <f>BSCallWithParams(C12:H12)</f>
+        <f t="shared" si="0"/>
         <v>0.29489798200424699</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0.29489798200424699</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="1"/>
-        <v>0.29489798200424699</v>
-      </c>
-      <c r="L12">
+        <v>35.174976289144745</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>-34.880078307140501</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f>BSPutWithParams(C12:H12)</f>
-        <v>35.174976289144745</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="4"/>
-        <v>-34.880078307140501</v>
-      </c>
-      <c r="P12">
-        <f>BSForwardWithParams(C12:H12)</f>
         <v>-34.880078307140494</v>
       </c>
       <c r="Q12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5314,47 +5321,47 @@
         <v>5</v>
       </c>
       <c r="I13">
-        <f>BSCallWithParams(C13:H13)</f>
+        <f t="shared" si="0"/>
         <v>0.41999876596917618</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0.41999876596917618</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="1"/>
-        <v>0.41999876596917618</v>
-      </c>
-      <c r="L13">
+        <v>33.300077073109669</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>-32.880078307140494</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f>BSPutWithParams(C13:H13)</f>
-        <v>33.300077073109669</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="4"/>
         <v>-32.880078307140494</v>
       </c>
-      <c r="P13">
-        <f>BSForwardWithParams(C13:H13)</f>
-        <v>-32.880078307140494</v>
-      </c>
       <c r="Q13" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R13" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S13" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5378,47 +5385,47 @@
         <v>5</v>
       </c>
       <c r="I14">
-        <f>BSCallWithParams(C14:H14)</f>
+        <f t="shared" si="0"/>
         <v>0.58110581540911843</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.58110581540911843</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="1"/>
-        <v>0.58110581540911843</v>
-      </c>
-      <c r="L14">
+        <v>31.461184122549611</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>-30.880078307140494</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f>BSPutWithParams(C14:H14)</f>
-        <v>31.461184122549611</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="4"/>
-        <v>-30.880078307140494</v>
-      </c>
-      <c r="P14">
-        <f>BSForwardWithParams(C14:H14)</f>
         <v>-30.88007830714049</v>
       </c>
       <c r="Q14" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R14" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S14" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5442,47 +5449,47 @@
         <v>5</v>
       </c>
       <c r="I15">
-        <f>BSCallWithParams(C15:H15)</f>
+        <f t="shared" si="0"/>
         <v>0.7835510313364713</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0.7835510313364713</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="1"/>
-        <v>0.7835510313364713</v>
-      </c>
-      <c r="L15">
+        <v>29.663629338476973</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>-28.880078307140501</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f>BSPutWithParams(C15:H15)</f>
-        <v>29.663629338476973</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="4"/>
-        <v>-28.880078307140501</v>
-      </c>
-      <c r="P15">
-        <f>BSForwardWithParams(C15:H15)</f>
         <v>-28.88007830714049</v>
       </c>
       <c r="Q15" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R15" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S15" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5506,47 +5513,47 @@
         <v>5</v>
       </c>
       <c r="I16">
-        <f>BSCallWithParams(C16:H16)</f>
+        <f t="shared" si="0"/>
         <v>1.0324495672720415</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="K16">
+        <f t="shared" si="4"/>
+        <v>1.0324495672720415</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="1"/>
-        <v>1.0324495672720415</v>
-      </c>
-      <c r="L16">
+        <v>27.91252787441254</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>-26.880078307140497</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f>BSPutWithParams(C16:H16)</f>
-        <v>27.91252787441254</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="4"/>
-        <v>-26.880078307140497</v>
-      </c>
-      <c r="P16">
-        <f>BSForwardWithParams(C16:H16)</f>
         <v>-26.88007830714049</v>
       </c>
       <c r="Q16" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R16" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S16" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5570,47 +5577,47 @@
         <v>5</v>
       </c>
       <c r="I17">
-        <f>BSCallWithParams(C17:H17)</f>
+        <f t="shared" si="0"/>
         <v>1.3325609672745511</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="K17">
+        <f t="shared" si="4"/>
+        <v>1.3325609672745511</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="1"/>
-        <v>1.3325609672745511</v>
-      </c>
-      <c r="L17">
+        <v>26.212639274415046</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>-24.880078307140494</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f>BSPutWithParams(C17:H17)</f>
-        <v>26.212639274415046</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="4"/>
-        <v>-24.880078307140494</v>
-      </c>
-      <c r="P17">
-        <f>BSForwardWithParams(C17:H17)</f>
         <v>-24.88007830714049</v>
       </c>
       <c r="Q17" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R17" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S17" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5634,47 +5641,47 @@
         <v>5</v>
       </c>
       <c r="I18">
-        <f>BSCallWithParams(C18:H18)</f>
+        <f t="shared" si="0"/>
         <v>1.6881741793912202</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="K18">
+        <f t="shared" si="4"/>
+        <v>1.6881741793912202</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="1"/>
-        <v>1.6881741793912202</v>
-      </c>
-      <c r="L18">
+        <v>24.568252486531719</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>-22.880078307140501</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f>BSPutWithParams(C18:H18)</f>
-        <v>24.568252486531719</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="4"/>
-        <v>-22.880078307140501</v>
-      </c>
-      <c r="P18">
-        <f>BSForwardWithParams(C18:H18)</f>
         <v>-22.880078307140494</v>
       </c>
       <c r="Q18" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R18" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S18" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5698,47 +5705,47 @@
         <v>5</v>
       </c>
       <c r="I19">
-        <f>BSCallWithParams(C19:H19)</f>
+        <f t="shared" si="0"/>
         <v>2.1030194714752017</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="K19">
+        <f t="shared" si="4"/>
+        <v>2.1030194714752017</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="1"/>
-        <v>2.1030194714752017</v>
-      </c>
-      <c r="L19">
+        <v>22.983097778615686</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>-20.880078307140487</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f>BSPutWithParams(C19:H19)</f>
-        <v>22.983097778615686</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="4"/>
-        <v>-20.880078307140487</v>
-      </c>
-      <c r="P19">
-        <f>BSForwardWithParams(C19:H19)</f>
         <v>-20.880078307140494</v>
       </c>
       <c r="Q19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R19" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5762,47 +5769,47 @@
         <v>5</v>
       </c>
       <c r="I20">
-        <f>BSCallWithParams(C20:H20)</f>
+        <f t="shared" si="0"/>
         <v>2.5802080176426188</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="K20">
+        <f t="shared" si="4"/>
+        <v>2.5802080176426188</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="1"/>
-        <v>2.5802080176426188</v>
-      </c>
-      <c r="L20">
+        <v>21.460286324783105</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>-18.880078307140487</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f>BSPutWithParams(C20:H20)</f>
-        <v>21.460286324783105</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="4"/>
         <v>-18.880078307140487</v>
       </c>
-      <c r="P20">
-        <f>BSForwardWithParams(C20:H20)</f>
-        <v>-18.880078307140487</v>
-      </c>
       <c r="Q20" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R20" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S20" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5826,47 +5833,47 @@
         <v>5</v>
       </c>
       <c r="I21">
-        <f>BSCallWithParams(C21:H21)</f>
+        <f t="shared" si="0"/>
         <v>3.1221981306740876</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="K21">
+        <f t="shared" si="4"/>
+        <v>3.1221981306740876</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="1"/>
-        <v>3.1221981306740876</v>
-      </c>
-      <c r="L21">
+        <v>20.002276437814579</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>-16.880078307140494</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <f>BSPutWithParams(C21:H21)</f>
-        <v>20.002276437814579</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="4"/>
-        <v>-16.880078307140494</v>
-      </c>
-      <c r="P21">
-        <f>BSForwardWithParams(C21:H21)</f>
         <v>-16.880078307140487</v>
       </c>
       <c r="Q21" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R21" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S21" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5890,47 +5897,47 @@
         <v>5</v>
       </c>
       <c r="I22">
-        <f>BSCallWithParams(C22:H22)</f>
+        <f t="shared" si="0"/>
         <v>3.7307858167801591</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="K22">
+        <f t="shared" si="4"/>
+        <v>3.7307858167801591</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="1"/>
-        <v>3.7307858167801591</v>
-      </c>
-      <c r="L22">
+        <v>18.610864123920656</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>-14.880078307140497</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f>BSPutWithParams(C22:H22)</f>
-        <v>18.610864123920656</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="4"/>
-        <v>-14.880078307140497</v>
-      </c>
-      <c r="P22">
-        <f>BSForwardWithParams(C22:H22)</f>
         <v>-14.88007830714049</v>
       </c>
       <c r="Q22" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R22" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S22" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5954,47 +5961,47 @@
         <v>5</v>
       </c>
       <c r="I23">
-        <f>BSCallWithParams(C23:H23)</f>
+        <f t="shared" si="0"/>
         <v>4.4071164944218104</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="K23">
+        <f t="shared" si="4"/>
+        <v>4.4071164944218104</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="1"/>
-        <v>4.4071164944218104</v>
-      </c>
-      <c r="L23">
+        <v>17.287194801562308</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>-12.880078307140497</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f>BSPutWithParams(C23:H23)</f>
-        <v>17.287194801562308</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="4"/>
-        <v>-12.880078307140497</v>
-      </c>
-      <c r="P23">
-        <f>BSForwardWithParams(C23:H23)</f>
         <v>-12.880078307140492</v>
       </c>
       <c r="Q23" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R23" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S23" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6018,47 +6025,47 @@
         <v>5</v>
       </c>
       <c r="I24">
-        <f>BSCallWithParams(C24:H24)</f>
+        <f t="shared" si="0"/>
         <v>5.1517142841540462</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="K24">
+        <f t="shared" si="4"/>
+        <v>5.1517142841540462</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="1"/>
-        <v>5.1517142841540462</v>
-      </c>
-      <c r="L24">
+        <v>16.03179259129454</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>-10.880078307140494</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f>BSPutWithParams(C24:H24)</f>
-        <v>16.03179259129454</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="4"/>
-        <v>-10.880078307140494</v>
-      </c>
-      <c r="P24">
-        <f>BSForwardWithParams(C24:H24)</f>
         <v>-10.880078307140495</v>
       </c>
       <c r="Q24" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R24" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S24" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6082,47 +6089,47 @@
         <v>5</v>
       </c>
       <c r="I25">
-        <f>BSCallWithParams(C25:H25)</f>
+        <f t="shared" si="0"/>
         <v>5.9645251622488047</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="K25">
+        <f t="shared" si="4"/>
+        <v>5.9645251622488047</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="1"/>
-        <v>5.9645251622488047</v>
-      </c>
-      <c r="L25">
+        <v>14.844603469389291</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>-8.8800783071404865</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f>BSPutWithParams(C25:H25)</f>
-        <v>14.844603469389291</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="4"/>
-        <v>-8.8800783071404865</v>
-      </c>
-      <c r="P25">
-        <f>BSForwardWithParams(C25:H25)</f>
         <v>-8.8800783071404972</v>
       </c>
       <c r="Q25" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R25" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S25" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6146,47 +6153,47 @@
         <v>5</v>
       </c>
       <c r="I26">
-        <f>BSCallWithParams(C26:H26)</f>
+        <f t="shared" si="0"/>
         <v>6.8449703956881329</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="K26">
+        <f t="shared" si="4"/>
+        <v>6.8449703956881329</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="1"/>
-        <v>6.8449703956881329</v>
-      </c>
-      <c r="L26">
+        <v>13.72504870282863</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>-6.8800783071404972</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f>BSPutWithParams(C26:H26)</f>
-        <v>13.72504870282863</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="4"/>
-        <v>-6.8800783071404972</v>
-      </c>
-      <c r="P26">
-        <f>BSForwardWithParams(C26:H26)</f>
         <v>-6.8800783071404883</v>
       </c>
       <c r="Q26" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R26" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S26" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6210,47 +6217,47 @@
         <v>5</v>
       </c>
       <c r="I27">
-        <f>BSCallWithParams(C27:H27)</f>
+        <f t="shared" si="0"/>
         <v>7.792006965012984</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="K27">
+        <f t="shared" si="4"/>
+        <v>7.792006965012984</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="1"/>
-        <v>7.792006965012984</v>
-      </c>
-      <c r="L27">
+        <v>12.672085272153481</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>-4.8800783071404972</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f>BSPutWithParams(C27:H27)</f>
-        <v>12.672085272153481</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="4"/>
-        <v>-4.8800783071404972</v>
-      </c>
-      <c r="P27">
-        <f>BSForwardWithParams(C27:H27)</f>
         <v>-4.8800783071404901</v>
       </c>
       <c r="Q27" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R27" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S27" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6274,47 +6281,47 @@
         <v>5</v>
       </c>
       <c r="I28">
-        <f>BSCallWithParams(C28:H28)</f>
+        <f t="shared" si="0"/>
         <v>8.8041782109452065</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="K28">
+        <f t="shared" si="4"/>
+        <v>8.8041782109452065</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="1"/>
-        <v>8.8041782109452065</v>
-      </c>
-      <c r="L28">
+        <v>11.684256518085704</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>-2.8800783071404972</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>BSPutWithParams(C28:H28)</f>
-        <v>11.684256518085704</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="4"/>
-        <v>-2.8800783071404972</v>
-      </c>
-      <c r="P28">
-        <f>BSForwardWithParams(C28:H28)</f>
         <v>-2.8800783071404923</v>
       </c>
       <c r="Q28" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R28" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S28" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6338,47 +6345,47 @@
         <v>5</v>
       </c>
       <c r="I29">
-        <f>BSCallWithParams(C29:H29)</f>
+        <f t="shared" si="0"/>
         <v>9.8796557593574477</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="K29">
+        <f t="shared" si="4"/>
+        <v>9.8796557593574477</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="1"/>
-        <v>9.8796557593574477</v>
-      </c>
-      <c r="L29">
+        <v>10.759734066497941</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>-0.88007830714049362</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <f>BSPutWithParams(C29:H29)</f>
-        <v>10.759734066497941</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="4"/>
-        <v>-0.88007830714049362</v>
-      </c>
-      <c r="P29">
-        <f>BSForwardWithParams(C29:H29)</f>
         <v>-0.88007830714049462</v>
       </c>
       <c r="Q29" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R29" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S29" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6402,47 +6409,47 @@
         <v>5</v>
       </c>
       <c r="I30">
-        <f>BSCallWithParams(C30:H30)</f>
+        <f t="shared" si="0"/>
         <v>11.016351047500159</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="K30">
+        <f t="shared" si="4"/>
+        <v>11.016351047500159</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>1.1199216928595064</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="1"/>
-        <v>11.016351047500159</v>
-      </c>
-      <c r="L30">
+        <v>9.8964293546406523</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>1.1199216928595064</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="3"/>
-        <v>1.1199216928595064</v>
-      </c>
-      <c r="N30">
-        <f>BSPutWithParams(C30:H30)</f>
-        <v>9.8964293546406523</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="4"/>
-        <v>1.1199216928595064</v>
-      </c>
-      <c r="P30">
-        <f>BSForwardWithParams(C30:H30)</f>
         <v>1.1199216928595033</v>
       </c>
       <c r="Q30" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R30" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S30" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6466,47 +6473,47 @@
         <v>5</v>
       </c>
       <c r="I31">
-        <f>BSCallWithParams(C31:H31)</f>
+        <f t="shared" si="0"/>
         <v>12.211937957294886</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="K31">
+        <f t="shared" si="4"/>
+        <v>12.211937957294886</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>3.1199216928595064</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="1"/>
-        <v>12.211937957294886</v>
-      </c>
-      <c r="L31">
+        <v>9.092016264435383</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>3.1199216928595028</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="3"/>
-        <v>3.1199216928595064</v>
-      </c>
-      <c r="N31">
-        <f>BSPutWithParams(C31:H31)</f>
-        <v>9.092016264435383</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="4"/>
-        <v>3.1199216928595028</v>
-      </c>
-      <c r="P31">
-        <f>BSForwardWithParams(C31:H31)</f>
         <v>3.1199216928595122</v>
       </c>
       <c r="Q31" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R31" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S31" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6530,47 +6537,47 @@
         <v>5</v>
       </c>
       <c r="I32">
-        <f>BSCallWithParams(C32:H32)</f>
+        <f t="shared" si="0"/>
         <v>13.463908413992186</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="K32">
+        <f t="shared" si="4"/>
+        <v>13.463908413992186</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>5.1199216928595064</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="1"/>
-        <v>13.463908413992186</v>
-      </c>
-      <c r="L32">
+        <v>8.3439867211326799</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>5.1199216928595064</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="3"/>
-        <v>5.1199216928595064</v>
-      </c>
-      <c r="N32">
-        <f>BSPutWithParams(C32:H32)</f>
-        <v>8.3439867211326799</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="4"/>
-        <v>5.1199216928595064</v>
-      </c>
-      <c r="P32">
-        <f>BSForwardWithParams(C32:H32)</f>
         <v>5.1199216928595099</v>
       </c>
       <c r="Q32" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R32" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S32" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6594,47 +6601,47 @@
         <v>5</v>
       </c>
       <c r="I33">
-        <f>BSCallWithParams(C33:H33)</f>
+        <f t="shared" si="0"/>
         <v>14.769653772254429</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="K33">
+        <f t="shared" si="4"/>
+        <v>14.769653772254429</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>7.1199216928595064</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="1"/>
-        <v>14.769653772254429</v>
-      </c>
-      <c r="L33">
+        <v>7.6497320793949228</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>7.1199216928595064</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="3"/>
-        <v>7.1199216928595064</v>
-      </c>
-      <c r="N33">
-        <f>BSPutWithParams(C33:H33)</f>
-        <v>7.6497320793949228</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="4"/>
-        <v>7.1199216928595064</v>
-      </c>
-      <c r="P33">
-        <f>BSForwardWithParams(C33:H33)</f>
         <v>7.1199216928595073</v>
       </c>
       <c r="Q33" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R33" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S33" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6658,47 +6665,47 @@
         <v>5</v>
       </c>
       <c r="I34">
-        <f>BSCallWithParams(C34:H34)</f>
+        <f t="shared" si="0"/>
         <v>16.126464558173545</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="K34">
+        <f t="shared" si="4"/>
+        <v>16.126464558173545</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>9.1199216928595064</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="1"/>
-        <v>16.126464558173545</v>
-      </c>
-      <c r="L34">
+        <v>7.0065428653140387</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>9.1199216928595064</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="3"/>
-        <v>9.1199216928595064</v>
-      </c>
-      <c r="N34">
-        <f>BSPutWithParams(C34:H34)</f>
-        <v>7.0065428653140387</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="4"/>
-        <v>9.1199216928595064</v>
-      </c>
-      <c r="P34">
-        <f>BSForwardWithParams(C34:H34)</f>
         <v>9.1199216928595046</v>
       </c>
       <c r="Q34" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R34" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S34" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6722,47 +6729,47 @@
         <v>5</v>
       </c>
       <c r="I35">
-        <f>BSCallWithParams(C35:H35)</f>
+        <f t="shared" ref="I35:I66" si="11">BSCallWithParams(C35:H35)</f>
         <v>17.531586017183272</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>17.531586017183272</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.119921692859506</v>
       </c>
       <c r="N35">
-        <f>BSPutWithParams(C35:H35)</f>
+        <f t="shared" ref="N35:N71" si="12">BSPutWithParams(C35:H35)</f>
         <v>6.4116643243237625</v>
       </c>
       <c r="O35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11.11992169285951</v>
       </c>
       <c r="P35">
-        <f>BSForwardWithParams(C35:H35)</f>
+        <f t="shared" ref="P35:P71" si="13">BSForwardWithParams(C35:H35)</f>
         <v>11.119921692859503</v>
       </c>
       <c r="Q35" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R35" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6786,47 +6793,47 @@
         <v>5</v>
       </c>
       <c r="I36">
-        <f>BSCallWithParams(C36:H36)</f>
+        <f t="shared" si="11"/>
         <v>18.982260972298548</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18.982260972298548</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13.119921692859506</v>
       </c>
       <c r="N36">
-        <f>BSPutWithParams(C36:H36)</f>
+        <f t="shared" si="12"/>
         <v>5.8623392794390483</v>
       </c>
       <c r="O36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>13.119921692859499</v>
       </c>
       <c r="P36">
-        <f>BSForwardWithParams(C36:H36)</f>
+        <f t="shared" si="13"/>
         <v>13.119921692859512</v>
       </c>
       <c r="Q36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R36" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S36" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6850,47 +6857,47 @@
         <v>5</v>
       </c>
       <c r="I37">
-        <f>BSCallWithParams(C37:H37)</f>
+        <f t="shared" si="11"/>
         <v>20.475757035920772</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20.475757035920772</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15.119921692859506</v>
       </c>
       <c r="N37">
-        <f>BSPutWithParams(C37:H37)</f>
+        <f t="shared" si="12"/>
         <v>5.3558353430612726</v>
       </c>
       <c r="O37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.119921692859499</v>
       </c>
       <c r="P37">
-        <f>BSForwardWithParams(C37:H37)</f>
+        <f t="shared" si="13"/>
         <v>15.11992169285951</v>
       </c>
       <c r="Q37" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R37" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S37" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6914,47 +6921,47 @@
         <v>5</v>
       </c>
       <c r="I38">
-        <f>BSCallWithParams(C38:H38)</f>
+        <f t="shared" si="11"/>
         <v>22.009389921003851</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22.009389921003851</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17.119921692859506</v>
       </c>
       <c r="N38">
-        <f>BSPutWithParams(C38:H38)</f>
+        <f t="shared" si="12"/>
         <v>4.8894682281443487</v>
       </c>
       <c r="O38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.119921692859503</v>
       </c>
       <c r="P38">
-        <f>BSForwardWithParams(C38:H38)</f>
+        <f t="shared" si="13"/>
         <v>17.119921692859506</v>
       </c>
       <c r="Q38" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S38" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6978,47 +6985,47 @@
         <v>5</v>
       </c>
       <c r="I39">
-        <f>BSCallWithParams(C39:H39)</f>
+        <f t="shared" si="11"/>
         <v>23.580542872709046</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>23.580542872709046</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19.119921692859506</v>
       </c>
       <c r="N39">
-        <f>BSPutWithParams(C39:H39)</f>
+        <f t="shared" si="12"/>
         <v>4.4606211798495288</v>
       </c>
       <c r="O39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19.119921692859517</v>
       </c>
       <c r="P39">
-        <f>BSForwardWithParams(C39:H39)</f>
+        <f t="shared" si="13"/>
         <v>19.119921692859506</v>
       </c>
       <c r="Q39" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R39" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S39" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7042,47 +7049,47 @@
         <v>5</v>
       </c>
       <c r="I40">
-        <f>BSCallWithParams(C40:H40)</f>
+        <f t="shared" si="11"/>
         <v>25.18668239740547</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25.18668239740547</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21.119921692859506</v>
       </c>
       <c r="N40">
-        <f>BSPutWithParams(C40:H40)</f>
+        <f t="shared" si="12"/>
         <v>4.0667607045459562</v>
       </c>
       <c r="O40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21.119921692859513</v>
       </c>
       <c r="P40">
-        <f>BSForwardWithParams(C40:H40)</f>
+        <f t="shared" si="13"/>
         <v>21.119921692859503</v>
       </c>
       <c r="Q40" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R40" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S40" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7106,47 +7113,47 @@
         <v>5</v>
       </c>
       <c r="I41">
-        <f>BSCallWithParams(C41:H41)</f>
+        <f t="shared" si="11"/>
         <v>26.825370562874589</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26.825370562874589</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.119921692859506</v>
       </c>
       <c r="N41">
-        <f>BSPutWithParams(C41:H41)</f>
+        <f t="shared" si="12"/>
         <v>3.7054488700150792</v>
       </c>
       <c r="O41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23.11992169285951</v>
       </c>
       <c r="P41">
-        <f>BSForwardWithParams(C41:H41)</f>
+        <f t="shared" si="13"/>
         <v>23.119921692859513</v>
       </c>
       <c r="Q41" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R41" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S41" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7170,47 +7177,47 @@
         <v>5</v>
       </c>
       <c r="I42">
-        <f>BSCallWithParams(C42:H42)</f>
+        <f t="shared" si="11"/>
         <v>28.494274198137198</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="K42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>28.494274198137198</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.119921692859506</v>
       </c>
       <c r="N42">
-        <f>BSPutWithParams(C42:H42)</f>
+        <f t="shared" si="12"/>
         <v>3.3743525052776882</v>
       </c>
       <c r="O42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25.11992169285951</v>
       </c>
       <c r="P42">
-        <f>BSForwardWithParams(C42:H42)</f>
+        <f t="shared" si="13"/>
         <v>25.11992169285951</v>
       </c>
       <c r="Q42" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R42" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S42" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7234,47 +7241,47 @@
         <v>5</v>
       </c>
       <c r="I43">
-        <f>BSCallWithParams(C43:H43)</f>
+        <f t="shared" si="11"/>
         <v>30.191171345625875</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="K43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30.191171345625875</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27.119921692859506</v>
       </c>
       <c r="N43">
-        <f>BSPutWithParams(C43:H43)</f>
+        <f t="shared" si="12"/>
         <v>3.0712496527663635</v>
       </c>
       <c r="O43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27.119921692859513</v>
       </c>
       <c r="P43">
-        <f>BSForwardWithParams(C43:H43)</f>
+        <f t="shared" si="13"/>
         <v>27.119921692859506</v>
       </c>
       <c r="Q43" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R43" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S43" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7298,47 +7305,47 @@
         <v>5</v>
       </c>
       <c r="I44">
-        <f>BSCallWithParams(C44:H44)</f>
+        <f t="shared" si="11"/>
         <v>31.91395532159499</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="K44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31.91395532159499</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29.119921692859506</v>
       </c>
       <c r="N44">
-        <f>BSPutWithParams(C44:H44)</f>
+        <f t="shared" si="12"/>
         <v>2.7940336287354874</v>
       </c>
       <c r="O44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>29.119921692859503</v>
       </c>
       <c r="P44">
-        <f>BSForwardWithParams(C44:H44)</f>
+        <f t="shared" si="13"/>
         <v>29.119921692859506</v>
       </c>
       <c r="Q44" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R44" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S44" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7362,47 +7369,47 @@
         <v>5</v>
       </c>
       <c r="I45">
-        <f>BSCallWithParams(C45:H45)</f>
+        <f t="shared" si="11"/>
         <v>33.660636729490143</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="K45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>33.660636729490143</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31.119921692859506</v>
       </c>
       <c r="N45">
-        <f>BSPutWithParams(C45:H45)</f>
+        <f t="shared" si="12"/>
         <v>2.5407150366306368</v>
       </c>
       <c r="O45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>31.119921692859506</v>
       </c>
       <c r="P45">
-        <f>BSForwardWithParams(C45:H45)</f>
+        <f t="shared" si="13"/>
         <v>31.119921692859503</v>
       </c>
       <c r="Q45" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R45" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S45" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7426,47 +7433,47 @@
         <v>5</v>
       </c>
       <c r="I46">
-        <f>BSCallWithParams(C46:H46)</f>
+        <f t="shared" si="11"/>
         <v>35.429343750544568</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="K46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35.429343750544568</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>33.119921692859506</v>
       </c>
       <c r="N46">
-        <f>BSPutWithParams(C46:H46)</f>
+        <f t="shared" si="12"/>
         <v>2.3094220576850599</v>
       </c>
       <c r="O46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>33.119921692859506</v>
       </c>
       <c r="P46">
-        <f>BSForwardWithParams(C46:H46)</f>
+        <f t="shared" si="13"/>
         <v>33.119921692859499</v>
       </c>
       <c r="Q46" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R46" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S46" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7490,47 +7497,47 @@
         <v>5</v>
       </c>
       <c r="I47">
-        <f>BSCallWithParams(C47:H47)</f>
+        <f t="shared" si="11"/>
         <v>37.218321009837979</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="K47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37.218321009837979</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="M47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35.119921692859506</v>
       </c>
       <c r="N47">
-        <f>BSPutWithParams(C47:H47)</f>
+        <f t="shared" si="12"/>
         <v>2.0983993169784707</v>
       </c>
       <c r="O47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>35.119921692859506</v>
       </c>
       <c r="P47">
-        <f>BSForwardWithParams(C47:H47)</f>
+        <f t="shared" si="13"/>
         <v>35.119921692859499</v>
       </c>
       <c r="Q47" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R47" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S47" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7554,47 +7561,47 @@
         <v>5</v>
       </c>
       <c r="I48">
-        <f>BSCallWithParams(C48:H48)</f>
+        <f t="shared" si="11"/>
         <v>39.02592728714724</v>
       </c>
       <c r="J48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="K48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>39.02592728714724</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>37.119921692859506</v>
       </c>
       <c r="N48">
-        <f>BSPutWithParams(C48:H48)</f>
+        <f t="shared" si="12"/>
         <v>1.906005594287743</v>
       </c>
       <c r="O48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>37.119921692859499</v>
       </c>
       <c r="P48">
-        <f>BSForwardWithParams(C48:H48)</f>
+        <f t="shared" si="13"/>
         <v>37.119921692859499</v>
       </c>
       <c r="Q48" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R48" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S48" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7618,47 +7625,47 @@
         <v>5</v>
       </c>
       <c r="I49">
-        <f>BSCallWithParams(C49:H49)</f>
+        <f t="shared" si="11"/>
         <v>40.850632312061379</v>
       </c>
       <c r="J49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="K49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>40.850632312061379</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>39.119921692859506</v>
       </c>
       <c r="N49">
-        <f>BSPutWithParams(C49:H49)</f>
+        <f t="shared" si="12"/>
         <v>1.7307106192018598</v>
       </c>
       <c r="O49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>39.119921692859521</v>
       </c>
       <c r="P49">
-        <f>BSForwardWithParams(C49:H49)</f>
+        <f t="shared" si="13"/>
         <v>39.119921692859492</v>
       </c>
       <c r="Q49" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R49" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S49" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7682,47 +7689,47 @@
         <v>5</v>
       </c>
       <c r="I50">
-        <f>BSCallWithParams(C50:H50)</f>
+        <f t="shared" si="11"/>
         <v>42.691012853368619</v>
       </c>
       <c r="J50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="K50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>42.691012853368619</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41.119921692859506</v>
       </c>
       <c r="N50">
-        <f>BSPutWithParams(C50:H50)</f>
+        <f t="shared" si="12"/>
         <v>1.5710911605091109</v>
       </c>
       <c r="O50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>41.119921692859506</v>
       </c>
       <c r="P50">
-        <f>BSForwardWithParams(C50:H50)</f>
+        <f t="shared" si="13"/>
         <v>41.119921692859513</v>
       </c>
       <c r="Q50" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R50" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S50" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7746,47 +7753,47 @@
         <v>5</v>
       </c>
       <c r="I51">
-        <f>BSCallWithParams(C51:H51)</f>
+        <f t="shared" si="11"/>
         <v>44.545748284553213</v>
       </c>
       <c r="J51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="K51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44.545748284553213</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="M51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43.119921692859506</v>
       </c>
       <c r="N51">
-        <f>BSPutWithParams(C51:H51)</f>
+        <f t="shared" si="12"/>
         <v>1.4258265916937045</v>
       </c>
       <c r="O51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>43.119921692859506</v>
       </c>
       <c r="P51">
-        <f>BSForwardWithParams(C51:H51)</f>
+        <f t="shared" si="13"/>
         <v>43.119921692859513</v>
       </c>
       <c r="Q51" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R51" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S51" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7810,47 +7817,47 @@
         <v>5</v>
       </c>
       <c r="I52">
-        <f>BSCallWithParams(C52:H52)</f>
+        <f t="shared" si="11"/>
         <v>46.413615780933043</v>
       </c>
       <c r="J52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="K52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>46.413615780933043</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="M52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45.119921692859506</v>
       </c>
       <c r="N52">
-        <f>BSPutWithParams(C52:H52)</f>
+        <f t="shared" si="12"/>
         <v>1.2936940880735337</v>
       </c>
       <c r="O52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>45.119921692859506</v>
       </c>
       <c r="P52">
-        <f>BSForwardWithParams(C52:H52)</f>
+        <f t="shared" si="13"/>
         <v>45.119921692859513</v>
       </c>
       <c r="Q52" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R52" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S52" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7874,47 +7881,47 @@
         <v>5</v>
       </c>
       <c r="I53">
-        <f>BSCallWithParams(C53:H53)</f>
+        <f t="shared" si="11"/>
         <v>48.293485279861258</v>
       </c>
       <c r="J53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="K53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>48.293485279861258</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="M53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47.119921692859506</v>
       </c>
       <c r="N53">
-        <f>BSPutWithParams(C53:H53)</f>
+        <f t="shared" si="12"/>
         <v>1.1735635870017482</v>
       </c>
       <c r="O53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>47.119921692859506</v>
       </c>
       <c r="P53">
-        <f>BSForwardWithParams(C53:H53)</f>
+        <f t="shared" si="13"/>
         <v>47.119921692859506</v>
       </c>
       <c r="Q53" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R53" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S53" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7938,47 +7945,47 @@
         <v>5</v>
       </c>
       <c r="I54">
-        <f>BSCallWithParams(C54:H54)</f>
+        <f t="shared" si="11"/>
         <v>50.184314313652166</v>
       </c>
       <c r="J54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="K54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50.184314313652166</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="M54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>49.119921692859506</v>
       </c>
       <c r="N54">
-        <f>BSPutWithParams(C54:H54)</f>
+        <f t="shared" si="12"/>
         <v>1.064392620792658</v>
       </c>
       <c r="O54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>49.119921692859506</v>
       </c>
       <c r="P54">
-        <f>BSForwardWithParams(C54:H54)</f>
+        <f t="shared" si="13"/>
         <v>49.119921692859506</v>
       </c>
       <c r="Q54" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R54" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S54" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8002,47 +8009,47 @@
         <v>5</v>
       </c>
       <c r="I55">
-        <f>BSCallWithParams(C55:H55)</f>
+        <f t="shared" si="11"/>
         <v>52.085142805505029</v>
       </c>
       <c r="J55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="K55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52.085142805505029</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="M55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51.119921692859506</v>
       </c>
       <c r="N55">
-        <f>BSPutWithParams(C55:H55)</f>
+        <f t="shared" si="12"/>
         <v>0.96522111264552279</v>
       </c>
       <c r="O55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>51.119921692859506</v>
       </c>
       <c r="P55">
-        <f>BSForwardWithParams(C55:H55)</f>
+        <f t="shared" si="13"/>
         <v>51.119921692859506</v>
       </c>
       <c r="Q55" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R55" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S55" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8066,47 +8073,47 @@
         <v>5</v>
       </c>
       <c r="I56">
-        <f>BSCallWithParams(C56:H56)</f>
+        <f t="shared" si="11"/>
         <v>53.995087901626803</v>
       </c>
       <c r="J56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>131</v>
       </c>
       <c r="K56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>53.995087901626803</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="M56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53.119921692859506</v>
       </c>
       <c r="N56">
-        <f>BSPutWithParams(C56:H56)</f>
+        <f t="shared" si="12"/>
         <v>0.87516620876728979</v>
       </c>
       <c r="O56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>53.119921692859513</v>
       </c>
       <c r="P56">
-        <f>BSForwardWithParams(C56:H56)</f>
+        <f t="shared" si="13"/>
         <v>53.119921692859499</v>
       </c>
       <c r="Q56" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R56" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S56" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8130,47 +8137,47 @@
         <v>5</v>
       </c>
       <c r="I57">
-        <f>BSCallWithParams(C57:H57)</f>
+        <f t="shared" si="11"/>
         <v>55.913338897876415</v>
       </c>
       <c r="J57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="K57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>55.913338897876415</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="M57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>55.119921692859506</v>
       </c>
       <c r="N57">
-        <f>BSPutWithParams(C57:H57)</f>
+        <f t="shared" si="12"/>
         <v>0.7934172050169126</v>
       </c>
       <c r="O57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>55.119921692859499</v>
       </c>
       <c r="P57">
-        <f>BSForwardWithParams(C57:H57)</f>
+        <f t="shared" si="13"/>
         <v>55.119921692859499</v>
       </c>
       <c r="Q57" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R57" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S57" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8194,47 +8201,47 @@
         <v>5</v>
       </c>
       <c r="I58">
-        <f>BSCallWithParams(C58:H58)</f>
+        <f t="shared" si="11"/>
         <v>57.839152306417276</v>
       </c>
       <c r="J58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="K58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>57.839152306417276</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="M58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>57.119921692859506</v>
       </c>
       <c r="N58">
-        <f>BSPutWithParams(C58:H58)</f>
+        <f t="shared" si="12"/>
         <v>0.71923061355776685</v>
       </c>
       <c r="O58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>57.119921692859506</v>
       </c>
       <c r="P58">
-        <f>BSForwardWithParams(C58:H58)</f>
+        <f t="shared" si="13"/>
         <v>57.119921692859499</v>
       </c>
       <c r="Q58" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R58" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S58" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8258,47 +8265,47 @@
         <v>5</v>
       </c>
       <c r="I59">
-        <f>BSCallWithParams(C59:H59)</f>
+        <f t="shared" si="11"/>
         <v>59.77184709689341</v>
       </c>
       <c r="J59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="K59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>59.77184709689341</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="M59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59.119921692859506</v>
       </c>
       <c r="N59">
-        <f>BSPutWithParams(C59:H59)</f>
+        <f t="shared" si="12"/>
         <v>0.6519254040339062</v>
       </c>
       <c r="O59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>59.119921692859506</v>
       </c>
       <c r="P59">
-        <f>BSForwardWithParams(C59:H59)</f>
+        <f t="shared" si="13"/>
         <v>59.119921692859492</v>
       </c>
       <c r="Q59" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R59" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S59" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8322,47 +8329,47 @@
         <v>5</v>
       </c>
       <c r="I60">
-        <f>BSCallWithParams(C60:H60)</f>
+        <f t="shared" si="11"/>
         <v>61.710800137358873</v>
       </c>
       <c r="J60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="K60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>61.710800137358873</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="M60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.119921692859506</v>
       </c>
       <c r="N60">
-        <f>BSPutWithParams(C60:H60)</f>
+        <f t="shared" si="12"/>
         <v>0.59087844449938132</v>
       </c>
       <c r="O60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>61.119921692859492</v>
       </c>
       <c r="P60">
-        <f>BSForwardWithParams(C60:H60)</f>
+        <f t="shared" si="13"/>
         <v>61.119921692859513</v>
       </c>
       <c r="Q60" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R60" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S60" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8386,47 +8393,47 @@
         <v>5</v>
       </c>
       <c r="I61">
-        <f>BSCallWithParams(C61:H61)</f>
+        <f t="shared" si="11"/>
         <v>63.655441852405133</v>
       </c>
       <c r="J61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="K61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>63.655441852405133</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="M61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.119921692859506</v>
       </c>
       <c r="N61">
-        <f>BSPutWithParams(C61:H61)</f>
+        <f t="shared" si="12"/>
         <v>0.53552015954562249</v>
       </c>
       <c r="O61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>63.119921692859513</v>
       </c>
       <c r="P61">
-        <f>BSForwardWithParams(C61:H61)</f>
+        <f t="shared" si="13"/>
         <v>63.119921692859513</v>
       </c>
       <c r="Q61" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R61" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S61" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8450,47 +8457,47 @@
         <v>5</v>
       </c>
       <c r="I62">
-        <f>BSCallWithParams(C62:H62)</f>
+        <f t="shared" si="11"/>
         <v>65.605252109472715</v>
       </c>
       <c r="J62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="K62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65.605252109472715</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="M62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65.119921692859506</v>
       </c>
       <c r="N62">
-        <f>BSPutWithParams(C62:H62)</f>
+        <f t="shared" si="12"/>
         <v>0.48533041661319531</v>
       </c>
       <c r="O62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>65.119921692859521</v>
       </c>
       <c r="P62">
-        <f>BSForwardWithParams(C62:H62)</f>
+        <f t="shared" si="13"/>
         <v>65.119921692859506</v>
       </c>
       <c r="Q62" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R62" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S62" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8514,47 +8521,47 @@
         <v>5</v>
       </c>
       <c r="I63">
-        <f>BSCallWithParams(C63:H63)</f>
+        <f t="shared" si="11"/>
         <v>67.559756339035872</v>
       </c>
       <c r="J63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="K63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>67.559756339035872</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="M63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>67.119921692859506</v>
       </c>
       <c r="N63">
-        <f>BSPutWithParams(C63:H63)</f>
+        <f t="shared" si="12"/>
         <v>0.43983464617636736</v>
       </c>
       <c r="O63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>67.119921692859506</v>
       </c>
       <c r="P63">
-        <f>BSForwardWithParams(C63:H63)</f>
+        <f t="shared" si="13"/>
         <v>67.119921692859506</v>
       </c>
       <c r="Q63" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R63" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S63" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8578,47 +8585,47 @@
         <v>5</v>
       </c>
       <c r="I64">
-        <f>BSCallWithParams(C64:H64)</f>
+        <f t="shared" si="11"/>
         <v>69.518521890055766</v>
       </c>
       <c r="J64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="K64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>69.518521890055766</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="M64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>69.119921692859506</v>
       </c>
       <c r="N64">
-        <f>BSPutWithParams(C64:H64)</f>
+        <f t="shared" si="12"/>
         <v>0.39860019719626738</v>
       </c>
       <c r="O64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>69.119921692859492</v>
       </c>
       <c r="P64">
-        <f>BSForwardWithParams(C64:H64)</f>
+        <f t="shared" si="13"/>
         <v>69.119921692859506</v>
       </c>
       <c r="Q64" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R64" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S64" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8642,47 +8649,47 @@
         <v>5</v>
       </c>
       <c r="I65">
-        <f>BSCallWithParams(C65:H65)</f>
+        <f t="shared" si="11"/>
         <v>71.481154618672406</v>
       </c>
       <c r="J65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="K65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>71.481154618672406</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="M65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>71.119921692859506</v>
       </c>
       <c r="N65">
-        <f>BSPutWithParams(C65:H65)</f>
+        <f t="shared" si="12"/>
         <v>0.36123292581290478</v>
       </c>
       <c r="O65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>71.119921692859506</v>
       </c>
       <c r="P65">
-        <f>BSForwardWithParams(C65:H65)</f>
+        <f t="shared" si="13"/>
         <v>71.119921692859506</v>
       </c>
       <c r="Q65" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R65" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S65" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8706,47 +8713,47 @@
         <v>5</v>
       </c>
       <c r="I66">
-        <f>BSCallWithParams(C66:H66)</f>
+        <f t="shared" si="11"/>
         <v>16.823159058040311</v>
       </c>
       <c r="J66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="K66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.823159058040311</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10.119921692859506</v>
       </c>
       <c r="N66">
-        <f>BSPutWithParams(C66:H66)</f>
+        <f t="shared" si="12"/>
         <v>6.7032373651808008</v>
       </c>
       <c r="O66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.11992169285951</v>
       </c>
       <c r="P66">
-        <f>BSForwardWithParams(C66:H66)</f>
+        <f t="shared" si="13"/>
         <v>10.119921692859505</v>
       </c>
       <c r="Q66" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R66" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S66" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8770,47 +8777,47 @@
         <v>5</v>
       </c>
       <c r="I67">
-        <f>BSCallWithParams(C67:H67)</f>
+        <f t="shared" ref="I67:I71" si="14">BSCallWithParams(C67:H67)</f>
         <v>17.531586017183272</v>
       </c>
       <c r="J67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="K67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>17.531586017183272</v>
       </c>
       <c r="L67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.119921692859506</v>
       </c>
       <c r="N67">
-        <f>BSPutWithParams(C67:H67)</f>
+        <f t="shared" si="12"/>
         <v>6.4116643243237625</v>
       </c>
       <c r="O67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11.11992169285951</v>
       </c>
       <c r="P67">
-        <f>BSForwardWithParams(C67:H67)</f>
+        <f t="shared" si="13"/>
         <v>11.119921692859503</v>
       </c>
       <c r="Q67" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R67" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S67" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8834,47 +8841,47 @@
         <v>5</v>
       </c>
       <c r="I68">
-        <f>BSCallWithParams(C68:H68)</f>
+        <f t="shared" si="14"/>
         <v>18.251400955329437</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J71" si="8">C68</f>
+        <f t="shared" ref="J68:J71" si="15">C68</f>
         <v>90</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K71" si="9">I68</f>
+        <f t="shared" ref="K68:K71" si="16">I68</f>
         <v>18.251400955329437</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L71" si="10">MAX(0,J68-D68)</f>
+        <f t="shared" ref="L68:L71" si="17">MAX(0,J68-D68)</f>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M71" si="11">MAX(0,J68-D68*EXP(-E68*H68))</f>
+        <f t="shared" ref="M68:M71" si="18">MAX(0,J68-D68*EXP(-E68*H68))</f>
         <v>12.119921692859506</v>
       </c>
       <c r="N68">
-        <f>BSPutWithParams(C68:H68)</f>
+        <f t="shared" si="12"/>
         <v>6.1314792624699344</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O71" si="12">K68-N68</f>
+        <f t="shared" ref="O68:O71" si="19">K68-N68</f>
         <v>12.119921692859503</v>
       </c>
       <c r="P68">
-        <f>BSForwardWithParams(C68:H68)</f>
+        <f t="shared" si="13"/>
         <v>12.119921692859503</v>
       </c>
       <c r="Q68" t="b">
-        <f t="shared" ref="Q68:Q71" si="13">(O68=P68)</f>
+        <f t="shared" ref="Q68:Q71" si="20">(O68=P68)</f>
         <v>1</v>
       </c>
       <c r="R68" t="b">
-        <f t="shared" ref="R68:R71" si="14">(K68&lt;=C68)</f>
+        <f t="shared" ref="R68:R71" si="21">(K68&lt;=C68)</f>
         <v>1</v>
       </c>
       <c r="S68" t="b">
-        <f t="shared" ref="S68:S71" si="15">K68&gt;=P68</f>
+        <f t="shared" ref="S68:S71" si="22">K68&gt;=P68</f>
         <v>1</v>
       </c>
     </row>
@@ -8898,47 +8905,47 @@
         <v>5</v>
       </c>
       <c r="I69">
-        <f>BSCallWithParams(C69:H69)</f>
+        <f t="shared" si="14"/>
         <v>18.982260972298548</v>
       </c>
       <c r="J69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>91</v>
       </c>
       <c r="K69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>18.982260972298548</v>
       </c>
       <c r="L69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>13.119921692859506</v>
       </c>
       <c r="N69">
-        <f>BSPutWithParams(C69:H69)</f>
+        <f t="shared" si="12"/>
         <v>5.8623392794390483</v>
       </c>
       <c r="O69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>13.119921692859499</v>
       </c>
       <c r="P69">
-        <f>BSForwardWithParams(C69:H69)</f>
+        <f t="shared" si="13"/>
         <v>13.119921692859512</v>
       </c>
       <c r="Q69" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="R69" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="S69" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -8962,47 +8969,47 @@
         <v>5</v>
       </c>
       <c r="I70">
-        <f>BSCallWithParams(C70:H70)</f>
+        <f t="shared" si="14"/>
         <v>19.723825507199734</v>
       </c>
       <c r="J70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="K70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>19.723825507199734</v>
       </c>
       <c r="L70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>14.119921692859506</v>
       </c>
       <c r="N70">
-        <f>BSPutWithParams(C70:H70)</f>
+        <f t="shared" si="12"/>
         <v>5.603903814340228</v>
       </c>
       <c r="O70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>14.119921692859506</v>
       </c>
       <c r="P70">
-        <f>BSForwardWithParams(C70:H70)</f>
+        <f t="shared" si="13"/>
         <v>14.119921692859512</v>
       </c>
       <c r="Q70" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="R70" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="S70" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -9026,47 +9033,47 @@
         <v>5</v>
       </c>
       <c r="I71">
-        <f>BSCallWithParams(C71:H71)</f>
+        <f t="shared" si="14"/>
         <v>20.475757035920772</v>
       </c>
       <c r="J71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>93</v>
       </c>
       <c r="K71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>20.475757035920772</v>
       </c>
       <c r="L71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>15.119921692859506</v>
       </c>
       <c r="N71">
-        <f>BSPutWithParams(C71:H71)</f>
+        <f t="shared" si="12"/>
         <v>5.3558353430612726</v>
       </c>
       <c r="O71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>15.119921692859499</v>
       </c>
       <c r="P71">
-        <f>BSForwardWithParams(C71:H71)</f>
+        <f t="shared" si="13"/>
         <v>15.11992169285951</v>
       </c>
       <c r="Q71" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="R71" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="S71" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -9095,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="I73">
-        <f>BSCallWithParams(C73:H73)</f>
+        <f t="shared" ref="I73:I104" si="23">BSCallWithParams(C73:H73)</f>
         <v>54.758441246201905</v>
       </c>
     </row>
@@ -9119,7 +9126,7 @@
         <v>2</v>
       </c>
       <c r="I74">
-        <f>BSCallWithParams(C74:H74)</f>
+        <f t="shared" si="23"/>
         <v>51.140180400288429</v>
       </c>
     </row>
@@ -9143,7 +9150,7 @@
         <v>2</v>
       </c>
       <c r="I75">
-        <f>BSCallWithParams(C75:H75)</f>
+        <f t="shared" si="23"/>
         <v>47.524510386697678</v>
       </c>
     </row>
@@ -9167,7 +9174,7 @@
         <v>2</v>
       </c>
       <c r="I76">
-        <f>BSCallWithParams(C76:H76)</f>
+        <f t="shared" si="23"/>
         <v>43.915524871255329</v>
       </c>
     </row>
@@ -9191,7 +9198,7 @@
         <v>2</v>
       </c>
       <c r="I77">
-        <f>BSCallWithParams(C77:H77)</f>
+        <f t="shared" si="23"/>
         <v>40.321244378678628</v>
       </c>
     </row>
@@ -9215,7 +9222,7 @@
         <v>2</v>
       </c>
       <c r="I78">
-        <f>BSCallWithParams(C78:H78)</f>
+        <f t="shared" si="23"/>
         <v>36.755235030793571</v>
       </c>
     </row>
@@ -9239,7 +9246,7 @@
         <v>2</v>
       </c>
       <c r="I79">
-        <f>BSCallWithParams(C79:H79)</f>
+        <f t="shared" si="23"/>
         <v>33.237686084027743</v>
       </c>
     </row>
@@ -9263,7 +9270,7 @@
         <v>2</v>
       </c>
       <c r="I80">
-        <f>BSCallWithParams(C80:H80)</f>
+        <f t="shared" si="23"/>
         <v>29.795421332312685</v>
       </c>
     </row>
@@ -9287,7 +9294,7 @@
         <v>2</v>
       </c>
       <c r="I81">
-        <f>BSCallWithParams(C81:H81)</f>
+        <f t="shared" si="23"/>
         <v>26.460594713623323</v>
       </c>
     </row>
@@ -9311,7 +9318,7 @@
         <v>2</v>
       </c>
       <c r="I82">
-        <f>BSCallWithParams(C82:H82)</f>
+        <f t="shared" si="23"/>
         <v>23.268206224891941</v>
       </c>
     </row>
@@ -9335,7 +9342,7 @@
         <v>2</v>
       </c>
       <c r="I83">
-        <f>BSCallWithParams(C83:H83)</f>
+        <f t="shared" si="23"/>
         <v>20.252905284921312</v>
       </c>
     </row>
@@ -9359,7 +9366,7 @@
         <v>2</v>
       </c>
       <c r="I84">
-        <f>BSCallWithParams(C84:H84)</f>
+        <f t="shared" si="23"/>
         <v>17.445709673785949</v>
       </c>
     </row>
@@ -9383,7 +9390,7 @@
         <v>2</v>
       </c>
       <c r="I85">
-        <f>BSCallWithParams(C85:H85)</f>
+        <f t="shared" si="23"/>
         <v>14.871234671702247</v>
       </c>
     </row>
@@ -9407,7 +9414,7 @@
         <v>2</v>
       </c>
       <c r="I86">
-        <f>BSCallWithParams(C86:H86)</f>
+        <f t="shared" si="23"/>
         <v>12.545850386253804</v>
       </c>
     </row>
@@ -9431,7 +9438,7 @@
         <v>2</v>
       </c>
       <c r="I87">
-        <f>BSCallWithParams(C87:H87)</f>
+        <f t="shared" si="23"/>
         <v>10.476949551750273</v>
       </c>
     </row>
@@ -9455,7 +9462,7 @@
         <v>2</v>
       </c>
       <c r="I88">
-        <f>BSCallWithParams(C88:H88)</f>
+        <f t="shared" si="23"/>
         <v>8.6632457575554085</v>
       </c>
     </row>
@@ -9479,7 +9486,7 @@
         <v>2</v>
       </c>
       <c r="I89">
-        <f>BSCallWithParams(C89:H89)</f>
+        <f t="shared" si="23"/>
         <v>7.0956284220517745</v>
       </c>
     </row>
@@ -9503,7 +9510,7 @@
         <v>2</v>
       </c>
       <c r="I90">
-        <f>BSCallWithParams(C90:H90)</f>
+        <f t="shared" si="23"/>
         <v>5.7590280684568214</v>
       </c>
     </row>
@@ -9527,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="I91">
-        <f>BSCallWithParams(C91:H91)</f>
+        <f t="shared" si="23"/>
         <v>4.6339210072428543</v>
       </c>
     </row>
@@ -9551,7 +9558,7 @@
         <v>2</v>
       </c>
       <c r="I92">
-        <f>BSCallWithParams(C92:H92)</f>
+        <f t="shared" si="23"/>
         <v>3.6981998233818629</v>
       </c>
     </row>
@@ -9575,7 +9582,7 @@
         <v>2</v>
       </c>
       <c r="I93">
-        <f>BSCallWithParams(C93:H93)</f>
+        <f t="shared" si="23"/>
         <v>2.928744294317486</v>
       </c>
     </row>
@@ -9599,7 +9606,7 @@
         <v>2</v>
       </c>
       <c r="I94">
-        <f>BSCallWithParams(C94:H94)</f>
+        <f t="shared" si="23"/>
         <v>2.3026574215818911</v>
       </c>
     </row>
@@ -9623,7 +9630,7 @@
         <v>2</v>
       </c>
       <c r="I95">
-        <f>BSCallWithParams(C95:H95)</f>
+        <f t="shared" si="23"/>
         <v>1.7982011601794863</v>
       </c>
     </row>
@@ -9647,7 +9654,7 @@
         <v>2</v>
       </c>
       <c r="I96">
-        <f>BSCallWithParams(C96:H96)</f>
+        <f t="shared" si="23"/>
         <v>1.3954264555824043</v>
       </c>
     </row>
@@ -9671,7 +9678,7 @@
         <v>2</v>
       </c>
       <c r="I97">
-        <f>BSCallWithParams(C97:H97)</f>
+        <f t="shared" si="23"/>
         <v>1.0765317484690087</v>
       </c>
     </row>
@@ -9695,7 +9702,7 @@
         <v>2</v>
       </c>
       <c r="I98">
-        <f>BSCallWithParams(C98:H98)</f>
+        <f t="shared" si="23"/>
         <v>0.82600225839398789</v>
       </c>
     </row>
@@ -9719,7 +9726,7 @@
         <v>2</v>
       </c>
       <c r="I99">
-        <f>BSCallWithParams(C99:H99)</f>
+        <f t="shared" si="23"/>
         <v>0.63058650339573497</v>
       </c>
     </row>
@@ -9743,7 +9750,7 @@
         <v>2</v>
       </c>
       <c r="I100">
-        <f>BSCallWithParams(C100:H100)</f>
+        <f t="shared" si="23"/>
         <v>0.4791623450015523</v>
       </c>
     </row>
@@ -9767,7 +9774,7 @@
         <v>2</v>
       </c>
       <c r="I101">
-        <f>BSCallWithParams(C101:H101)</f>
+        <f t="shared" si="23"/>
         <v>0.36253650318703201</v>
       </c>
     </row>
@@ -9791,7 +9798,7 @@
         <v>2</v>
       </c>
       <c r="I102">
-        <f>BSCallWithParams(C102:H102)</f>
+        <f t="shared" si="23"/>
         <v>0.27321175671789</v>
       </c>
     </row>
@@ -9815,7 +9822,7 @@
         <v>2</v>
       </c>
       <c r="I103">
-        <f>BSCallWithParams(C103:H103)</f>
+        <f t="shared" si="23"/>
         <v>0.20514664601124499</v>
       </c>
     </row>
@@ -9839,7 +9846,7 @@
         <v>2</v>
       </c>
       <c r="I104">
-        <f>BSCallWithParams(C104:H104)</f>
+        <f t="shared" si="23"/>
         <v>0.15352434079724464</v>
       </c>
     </row>
@@ -9863,7 +9870,7 @@
         <v>2</v>
       </c>
       <c r="I105">
-        <f>BSCallWithParams(C105:H105)</f>
+        <f t="shared" ref="I105:I123" si="24">BSCallWithParams(C105:H105)</f>
         <v>0.11454078464553974</v>
       </c>
     </row>
@@ -9887,7 +9894,7 @@
         <v>2</v>
       </c>
       <c r="I106">
-        <f>BSCallWithParams(C106:H106)</f>
+        <f t="shared" si="24"/>
         <v>8.521729886995888E-2</v>
       </c>
     </row>
@@ -9911,7 +9918,7 @@
         <v>2</v>
       </c>
       <c r="I107">
-        <f>BSCallWithParams(C107:H107)</f>
+        <f t="shared" si="24"/>
         <v>6.3239345343050535E-2</v>
       </c>
     </row>
@@ -9935,7 +9942,7 @@
         <v>2</v>
       </c>
       <c r="I108">
-        <f>BSCallWithParams(C108:H108)</f>
+        <f t="shared" si="24"/>
         <v>4.6820854337567774E-2</v>
       </c>
     </row>
@@ -9959,7 +9966,7 @@
         <v>2</v>
       </c>
       <c r="I109">
-        <f>BSCallWithParams(C109:H109)</f>
+        <f t="shared" si="24"/>
         <v>3.4592147477640944E-2</v>
       </c>
     </row>
@@ -9983,7 +9990,7 @@
         <v>2</v>
       </c>
       <c r="I110">
-        <f>BSCallWithParams(C110:H110)</f>
+        <f t="shared" si="24"/>
         <v>2.550877786934741E-2</v>
       </c>
     </row>
@@ -10007,7 +10014,7 @@
         <v>2</v>
       </c>
       <c r="I111">
-        <f>BSCallWithParams(C111:H111)</f>
+        <f t="shared" si="24"/>
         <v>1.8778360504609959E-2</v>
       </c>
     </row>
@@ -10031,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="I112">
-        <f>BSCallWithParams(C112:H112)</f>
+        <f t="shared" si="24"/>
         <v>1.3802512047381366E-2</v>
       </c>
     </row>
@@ -10055,7 +10062,7 @@
         <v>2</v>
       </c>
       <c r="I113">
-        <f>BSCallWithParams(C113:H113)</f>
+        <f t="shared" si="24"/>
         <v>1.0131238253938607E-2</v>
       </c>
     </row>
@@ -10079,7 +10086,7 @@
         <v>2</v>
       </c>
       <c r="I114">
-        <f>BSCallWithParams(C114:H114)</f>
+        <f t="shared" si="24"/>
         <v>7.4274135845417699E-3</v>
       </c>
     </row>
@@ -10103,7 +10110,7 @@
         <v>2</v>
       </c>
       <c r="I115">
-        <f>BSCallWithParams(C115:H115)</f>
+        <f t="shared" si="24"/>
         <v>5.4393336414887694E-3</v>
       </c>
     </row>
@@ -10127,7 +10134,7 @@
         <v>2</v>
       </c>
       <c r="I116">
-        <f>BSCallWithParams(C116:H116)</f>
+        <f t="shared" si="24"/>
         <v>3.9796510404038477E-3</v>
       </c>
     </row>
@@ -10151,7 +10158,7 @@
         <v>2</v>
       </c>
       <c r="I117">
-        <f>BSCallWithParams(C117:H117)</f>
+        <f t="shared" si="24"/>
         <v>2.9093087637163326E-3</v>
       </c>
     </row>
@@ -10175,7 +10182,7 @@
         <v>2</v>
       </c>
       <c r="I118">
-        <f>BSCallWithParams(C118:H118)</f>
+        <f t="shared" si="24"/>
         <v>2.1253520942473708E-3</v>
       </c>
     </row>
@@ -10199,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="I119">
-        <f>BSCallWithParams(C119:H119)</f>
+        <f t="shared" si="24"/>
         <v>1.5517278713805711E-3</v>
       </c>
     </row>
@@ -10223,7 +10230,7 @@
         <v>2</v>
       </c>
       <c r="I120">
-        <f>BSCallWithParams(C120:H120)</f>
+        <f t="shared" si="24"/>
         <v>1.1323691910116E-3</v>
       </c>
     </row>
@@ -10247,7 +10254,7 @@
         <v>2</v>
       </c>
       <c r="I121">
-        <f>BSCallWithParams(C121:H121)</f>
+        <f t="shared" si="24"/>
         <v>8.2601819652824288E-4</v>
       </c>
     </row>
@@ -10271,7 +10278,7 @@
         <v>2</v>
       </c>
       <c r="I122">
-        <f>BSCallWithParams(C122:H122)</f>
+        <f t="shared" si="24"/>
         <v>6.0236372081966423E-4</v>
       </c>
     </row>
@@ -10295,7 +10302,7 @@
         <v>2</v>
       </c>
       <c r="I123">
-        <f>BSCallWithParams(C123:H123)</f>
+        <f t="shared" si="24"/>
         <v>4.3916892630259385E-4</v>
       </c>
     </row>
@@ -10319,7 +10326,7 @@
         <v>2</v>
       </c>
       <c r="I131">
-        <f>BSCallWithParams(C131:H131)</f>
+        <f t="shared" ref="I131:I162" si="25">BSCallWithParams(C131:H131)</f>
         <v>9.5162581964041948</v>
       </c>
     </row>
@@ -10343,7 +10350,7 @@
         <v>2</v>
       </c>
       <c r="I132">
-        <f>BSCallWithParams(C132:H132)</f>
+        <f t="shared" si="25"/>
         <v>11.839043369930081</v>
       </c>
     </row>
@@ -10367,7 +10374,7 @@
         <v>2</v>
       </c>
       <c r="I133">
-        <f>BSCallWithParams(C133:H133)</f>
+        <f t="shared" si="25"/>
         <v>16.627156381545056</v>
       </c>
     </row>
@@ -10391,7 +10398,7 @@
         <v>2</v>
       </c>
       <c r="I134">
-        <f>BSCallWithParams(C134:H134)</f>
+        <f t="shared" si="25"/>
         <v>21.704159514133117</v>
       </c>
     </row>
@@ -10415,7 +10422,7 @@
         <v>2</v>
       </c>
       <c r="I135">
-        <f>BSCallWithParams(C135:H135)</f>
+        <f t="shared" si="25"/>
         <v>26.797560758471207</v>
       </c>
     </row>
@@ -10439,7 +10446,7 @@
         <v>2</v>
       </c>
       <c r="I136">
-        <f>BSCallWithParams(C136:H136)</f>
+        <f t="shared" si="25"/>
         <v>31.826293143245266</v>
       </c>
     </row>
@@ -10463,7 +10470,7 @@
         <v>2</v>
       </c>
       <c r="I137">
-        <f>BSCallWithParams(C137:H137)</f>
+        <f t="shared" si="25"/>
         <v>36.747737857591993</v>
       </c>
     </row>
@@ -10487,7 +10494,7 @@
         <v>2</v>
       </c>
       <c r="I138">
-        <f>BSCallWithParams(C138:H138)</f>
+        <f t="shared" si="25"/>
         <v>41.532235627655275</v>
       </c>
     </row>
@@ -10511,7 +10518,7 @@
         <v>2</v>
       </c>
       <c r="I139">
-        <f>BSCallWithParams(C139:H139)</f>
+        <f t="shared" si="25"/>
         <v>46.156524099122151</v>
       </c>
     </row>
@@ -10535,7 +10542,7 @@
         <v>2</v>
       </c>
       <c r="I140">
-        <f>BSCallWithParams(C140:H140)</f>
+        <f t="shared" si="25"/>
         <v>50.601592847360578</v>
       </c>
     </row>
@@ -10559,7 +10566,7 @@
         <v>2</v>
       </c>
       <c r="I141">
-        <f>BSCallWithParams(C141:H141)</f>
+        <f t="shared" si="25"/>
         <v>54.85187738667166</v>
       </c>
     </row>
@@ -10583,7 +10590,7 @@
         <v>2</v>
       </c>
       <c r="I142">
-        <f>BSCallWithParams(C142:H142)</f>
+        <f t="shared" si="25"/>
         <v>58.894917171547341</v>
       </c>
     </row>
@@ -10607,7 +10614,7 @@
         <v>2</v>
       </c>
       <c r="I143">
-        <f>BSCallWithParams(C143:H143)</f>
+        <f t="shared" si="25"/>
         <v>62.72117876276706</v>
       </c>
     </row>
@@ -10631,7 +10638,7 @@
         <v>2</v>
       </c>
       <c r="I144">
-        <f>BSCallWithParams(C144:H144)</f>
+        <f t="shared" si="25"/>
         <v>66.323928616884913</v>
       </c>
     </row>
@@ -10655,7 +10662,7 @@
         <v>2</v>
       </c>
       <c r="I145">
-        <f>BSCallWithParams(C145:H145)</f>
+        <f t="shared" si="25"/>
         <v>69.699107575260598</v>
       </c>
     </row>
@@ -10679,7 +10686,7 @@
         <v>2</v>
       </c>
       <c r="I146">
-        <f>BSCallWithParams(C146:H146)</f>
+        <f t="shared" si="25"/>
         <v>72.845187262744233</v>
       </c>
     </row>
@@ -10703,7 +10710,7 @@
         <v>2</v>
       </c>
       <c r="I147">
-        <f>BSCallWithParams(C147:H147)</f>
+        <f t="shared" si="25"/>
         <v>75.763001559819102</v>
       </c>
     </row>
@@ -10727,7 +10734,7 @@
         <v>2</v>
       </c>
       <c r="I148">
-        <f>BSCallWithParams(C148:H148)</f>
+        <f t="shared" si="25"/>
         <v>78.455552788369602</v>
       </c>
     </row>
@@ -10751,7 +10758,7 @@
         <v>2</v>
       </c>
       <c r="I149">
-        <f>BSCallWithParams(C149:H149)</f>
+        <f t="shared" si="25"/>
         <v>80.927795671916769</v>
       </c>
     </row>
@@ -10775,7 +10782,7 @@
         <v>2</v>
       </c>
       <c r="I150">
-        <f>BSCallWithParams(C150:H150)</f>
+        <f t="shared" si="25"/>
         <v>83.186403953617528</v>
       </c>
     </row>
@@ -10799,7 +10806,7 @@
         <v>2</v>
       </c>
       <c r="I151">
-        <f>BSCallWithParams(C151:H151)</f>
+        <f t="shared" si="25"/>
         <v>85.239525449616934</v>
       </c>
     </row>
@@ -10823,7 +10830,7 @@
         <v>2</v>
       </c>
       <c r="I152">
-        <f>BSCallWithParams(C152:H152)</f>
+        <f t="shared" si="25"/>
         <v>87.096531616592344</v>
       </c>
     </row>
@@ -10847,7 +10854,7 @@
         <v>2</v>
       </c>
       <c r="I153">
-        <f>BSCallWithParams(C153:H153)</f>
+        <f t="shared" si="25"/>
         <v>88.767767606412221</v>
       </c>
     </row>
@@ -10871,7 +10878,7 @@
         <v>2</v>
       </c>
       <c r="I154">
-        <f>BSCallWithParams(C154:H154)</f>
+        <f t="shared" si="25"/>
         <v>90.264308384506236</v>
       </c>
     </row>
@@ -10895,7 +10902,7 @@
         <v>2</v>
       </c>
       <c r="I155">
-        <f>BSCallWithParams(C155:H155)</f>
+        <f t="shared" si="25"/>
         <v>91.597725885149686</v>
       </c>
     </row>
@@ -10919,7 +10926,7 @@
         <v>2</v>
       </c>
       <c r="I156">
-        <f>BSCallWithParams(C156:H156)</f>
+        <f t="shared" si="25"/>
         <v>92.779871432384169</v>
       </c>
     </row>
@@ -10943,7 +10950,7 @@
         <v>2</v>
       </c>
       <c r="I157">
-        <f>BSCallWithParams(C157:H157)</f>
+        <f t="shared" si="25"/>
         <v>93.822676825373037</v>
       </c>
     </row>
@@ -10967,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="I158">
-        <f>BSCallWithParams(C158:H158)</f>
+        <f t="shared" si="25"/>
         <v>94.737976619731199</v>
       </c>
     </row>
@@ -10991,7 +10998,7 @@
         <v>2</v>
       </c>
       <c r="I159">
-        <f>BSCallWithParams(C159:H159)</f>
+        <f t="shared" si="25"/>
         <v>95.537353273233848</v>
       </c>
     </row>
@@ -11015,7 +11022,7 @@
         <v>2</v>
       </c>
       <c r="I160">
-        <f>BSCallWithParams(C160:H160)</f>
+        <f t="shared" si="25"/>
         <v>96.232006000157455</v>
       </c>
     </row>
@@ -11039,7 +11046,7 @@
         <v>2</v>
       </c>
       <c r="I161">
-        <f>BSCallWithParams(C161:H161)</f>
+        <f t="shared" si="25"/>
         <v>96.832643421467353</v>
       </c>
     </row>
@@ -11063,7 +11070,7 @@
         <v>2</v>
       </c>
       <c r="I162">
-        <f>BSCallWithParams(C162:H162)</f>
+        <f t="shared" si="25"/>
         <v>97.349399429414035</v>
       </c>
     </row>
@@ -11087,7 +11094,7 @@
         <v>2</v>
       </c>
       <c r="I163">
-        <f>BSCallWithParams(C163:H163)</f>
+        <f t="shared" ref="I163:I181" si="26">BSCallWithParams(C163:H163)</f>
         <v>97.791771119362053</v>
       </c>
     </row>
@@ -11111,7 +11118,7 @@
         <v>2</v>
       </c>
       <c r="I164">
-        <f>BSCallWithParams(C164:H164)</f>
+        <f t="shared" si="26"/>
         <v>98.168577186948838</v>
       </c>
     </row>
@@ -11135,7 +11142,7 @@
         <v>2</v>
       </c>
       <c r="I165">
-        <f>BSCallWithParams(C165:H165)</f>
+        <f t="shared" si="26"/>
         <v>98.487934847184377</v>
       </c>
     </row>
@@ -11159,7 +11166,7 @@
         <v>2</v>
       </c>
       <c r="I166">
-        <f>BSCallWithParams(C166:H166)</f>
+        <f t="shared" si="26"/>
         <v>98.757253100958991</v>
       </c>
     </row>
@@ -11183,7 +11190,7 @@
         <v>2</v>
       </c>
       <c r="I167">
-        <f>BSCallWithParams(C167:H167)</f>
+        <f t="shared" si="26"/>
         <v>98.9832400464866</v>
       </c>
     </row>
@@ -11207,7 +11214,7 @@
         <v>2</v>
       </c>
       <c r="I168">
-        <f>BSCallWithParams(C168:H168)</f>
+        <f t="shared" si="26"/>
         <v>99.171921898054705</v>
       </c>
     </row>
@@ -11231,7 +11238,7 @@
         <v>2</v>
       </c>
       <c r="I169">
-        <f>BSCallWithParams(C169:H169)</f>
+        <f t="shared" si="26"/>
         <v>99.328671419357562</v>
       </c>
     </row>
@@ -11255,7 +11262,7 @@
         <v>2</v>
       </c>
       <c r="I170">
-        <f>BSCallWithParams(C170:H170)</f>
+        <f t="shared" si="26"/>
         <v>99.458243589572774</v>
       </c>
     </row>
@@ -11279,7 +11286,7 @@
         <v>2</v>
       </c>
       <c r="I171">
-        <f>BSCallWithParams(C171:H171)</f>
+        <f t="shared" si="26"/>
         <v>99.564816482624408</v>
       </c>
     </row>
@@ -11303,7 +11310,7 @@
         <v>2</v>
       </c>
       <c r="I172">
-        <f>BSCallWithParams(C172:H172)</f>
+        <f t="shared" si="26"/>
         <v>99.652035539428113</v>
       </c>
     </row>
@@ -11327,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="I173">
-        <f>BSCallWithParams(C173:H173)</f>
+        <f t="shared" si="26"/>
         <v>99.723059635872787</v>
       </c>
     </row>
@@ -11351,7 +11358,7 @@
         <v>2</v>
       </c>
       <c r="I174">
-        <f>BSCallWithParams(C174:H174)</f>
+        <f t="shared" si="26"/>
         <v>99.780607583725271</v>
       </c>
     </row>
@@ -11375,7 +11382,7 @@
         <v>2</v>
       </c>
       <c r="I175">
-        <f>BSCallWithParams(C175:H175)</f>
+        <f t="shared" si="26"/>
         <v>99.827003937067161</v>
       </c>
     </row>
@@ -11399,7 +11406,7 @@
         <v>2</v>
       </c>
       <c r="I176">
-        <f>BSCallWithParams(C176:H176)</f>
+        <f t="shared" si="26"/>
         <v>99.864223204638776</v>
       </c>
     </row>
@@ -11423,7 +11430,7 @@
         <v>2</v>
       </c>
       <c r="I177">
-        <f>BSCallWithParams(C177:H177)</f>
+        <f t="shared" si="26"/>
         <v>99.893931781814985</v>
       </c>
     </row>
@@ -11447,7 +11454,7 @@
         <v>2</v>
       </c>
       <c r="I178">
-        <f>BSCallWithParams(C178:H178)</f>
+        <f t="shared" si="26"/>
         <v>99.917527109959693</v>
       </c>
     </row>
@@ -11471,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="I179">
-        <f>BSCallWithParams(C179:H179)</f>
+        <f t="shared" si="26"/>
         <v>99.936173742400868</v>
       </c>
     </row>
@@ -11495,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="I180">
-        <f>BSCallWithParams(C180:H180)</f>
+        <f t="shared" si="26"/>
         <v>99.950836143570797</v>
       </c>
     </row>
@@ -11519,7 +11526,7 @@
         <v>2</v>
       </c>
       <c r="I181">
-        <f>BSCallWithParams(C181:H181)</f>
+        <f t="shared" si="26"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -11554,7 +11561,7 @@
         <v>0.01</v>
       </c>
       <c r="I185">
-        <f>BSCallWithParams(C185:H185)</f>
+        <f t="shared" ref="I185:I216" si="27">BSCallWithParams(C185:H185)</f>
         <v>0.6235857672963192</v>
       </c>
     </row>
@@ -11578,7 +11585,7 @@
         <v>0.26</v>
       </c>
       <c r="I186">
-        <f>BSCallWithParams(C186:H186)</f>
+        <f t="shared" si="27"/>
         <v>3.7203168748447979</v>
       </c>
     </row>
@@ -11602,7 +11609,7 @@
         <v>0.51</v>
       </c>
       <c r="I187">
-        <f>BSCallWithParams(C187:H187)</f>
+        <f t="shared" si="27"/>
         <v>5.5954059264502405</v>
       </c>
     </row>
@@ -11626,7 +11633,7 @@
         <v>0.76</v>
       </c>
       <c r="I188">
-        <f>BSCallWithParams(C188:H188)</f>
+        <f t="shared" si="27"/>
         <v>7.1944536099124861</v>
       </c>
     </row>
@@ -11650,7 +11657,7 @@
         <v>1.01</v>
       </c>
       <c r="I189">
-        <f>BSCallWithParams(C189:H189)</f>
+        <f t="shared" si="27"/>
         <v>8.6477401507639655</v>
       </c>
     </row>
@@ -11674,7 +11681,7 @@
         <v>1.26</v>
       </c>
       <c r="I190">
-        <f>BSCallWithParams(C190:H190)</f>
+        <f t="shared" si="27"/>
         <v>10.006080427459985</v>
       </c>
     </row>
@@ -11698,7 +11705,7 @@
         <v>1.51</v>
       </c>
       <c r="I191">
-        <f>BSCallWithParams(C191:H191)</f>
+        <f t="shared" si="27"/>
         <v>11.295494563901556</v>
       </c>
     </row>
@@ -11722,7 +11729,7 @@
         <v>1.76</v>
       </c>
       <c r="I192">
-        <f>BSCallWithParams(C192:H192)</f>
+        <f t="shared" si="27"/>
         <v>12.531371630032886</v>
       </c>
     </row>
@@ -11746,7 +11753,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="I193">
-        <f>BSCallWithParams(C193:H193)</f>
+        <f t="shared" si="27"/>
         <v>13.723682490341808</v>
       </c>
     </row>
@@ -11770,7 +11777,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="I194">
-        <f>BSCallWithParams(C194:H194)</f>
+        <f t="shared" si="27"/>
         <v>14.87931125346681</v>
       </c>
     </row>
@@ -11794,7 +11801,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="I195">
-        <f>BSCallWithParams(C195:H195)</f>
+        <f t="shared" si="27"/>
         <v>16.003239951950505</v>
       </c>
     </row>
@@ -11818,7 +11825,7 @@
         <v>2.76</v>
       </c>
       <c r="I196">
-        <f>BSCallWithParams(C196:H196)</f>
+        <f t="shared" si="27"/>
         <v>17.09920790580518</v>
       </c>
     </row>
@@ -11842,7 +11849,7 @@
         <v>3.01</v>
       </c>
       <c r="I197">
-        <f>BSCallWithParams(C197:H197)</f>
+        <f t="shared" si="27"/>
         <v>18.170104776636421</v>
       </c>
     </row>
@@ -11866,7 +11873,7 @@
         <v>3.26</v>
       </c>
       <c r="I198">
-        <f>BSCallWithParams(C198:H198)</f>
+        <f t="shared" si="27"/>
         <v>19.21821780510264</v>
       </c>
     </row>
@@ -11890,7 +11897,7 @@
         <v>3.51</v>
       </c>
       <c r="I199">
-        <f>BSCallWithParams(C199:H199)</f>
+        <f t="shared" si="27"/>
         <v>20.245394206505019</v>
       </c>
     </row>
@@ -11914,7 +11921,7 @@
         <v>3.76</v>
       </c>
       <c r="I200">
-        <f>BSCallWithParams(C200:H200)</f>
+        <f t="shared" si="27"/>
         <v>21.25315171028911</v>
       </c>
     </row>
@@ -11938,7 +11945,7 @@
         <v>4.01</v>
       </c>
       <c r="I201">
-        <f>BSCallWithParams(C201:H201)</f>
+        <f t="shared" si="27"/>
         <v>22.242756085288249</v>
       </c>
     </row>
@@ -11962,7 +11969,7 @@
         <v>4.26</v>
       </c>
       <c r="I202">
-        <f>BSCallWithParams(C202:H202)</f>
+        <f t="shared" si="27"/>
         <v>23.215276911550696</v>
       </c>
     </row>
@@ -11986,7 +11993,7 @@
         <v>4.51</v>
       </c>
       <c r="I203">
-        <f>BSCallWithParams(C203:H203)</f>
+        <f t="shared" si="27"/>
         <v>24.171628591435876</v>
       </c>
     </row>
@@ -12010,7 +12017,7 @@
         <v>4.76</v>
       </c>
       <c r="I204">
-        <f>BSCallWithParams(C204:H204)</f>
+        <f t="shared" si="27"/>
         <v>25.112601087202563</v>
       </c>
     </row>
@@ -12034,7 +12041,7 @@
         <v>5.01</v>
       </c>
       <c r="I205">
-        <f>BSCallWithParams(C205:H205)</f>
+        <f t="shared" si="27"/>
         <v>26.038883347770728</v>
       </c>
     </row>
@@ -12058,7 +12065,7 @@
         <v>5.26</v>
       </c>
       <c r="I206">
-        <f>BSCallWithParams(C206:H206)</f>
+        <f t="shared" si="27"/>
         <v>26.951081430217826</v>
       </c>
     </row>
@@ -12082,7 +12089,7 @@
         <v>5.51</v>
       </c>
       <c r="I207">
-        <f>BSCallWithParams(C207:H207)</f>
+        <f t="shared" si="27"/>
         <v>27.849732703946728</v>
       </c>
     </row>
@@ -12106,7 +12113,7 @@
         <v>5.76</v>
       </c>
       <c r="I208">
-        <f>BSCallWithParams(C208:H208)</f>
+        <f t="shared" si="27"/>
         <v>28.735317117097175</v>
       </c>
     </row>
@@ -12130,7 +12137,7 @@
         <v>6.01</v>
       </c>
       <c r="I209">
-        <f>BSCallWithParams(C209:H209)</f>
+        <f t="shared" si="27"/>
         <v>29.608266228840371</v>
       </c>
     </row>
@@ -12154,7 +12161,7 @@
         <v>6.26</v>
       </c>
       <c r="I210">
-        <f>BSCallWithParams(C210:H210)</f>
+        <f t="shared" si="27"/>
         <v>30.468970521077495</v>
       </c>
     </row>
@@ -12178,7 +12185,7 @@
         <v>6.51</v>
       </c>
       <c r="I211">
-        <f>BSCallWithParams(C211:H211)</f>
+        <f t="shared" si="27"/>
         <v>31.317785369741365</v>
       </c>
     </row>
@@ -12202,7 +12209,7 @@
         <v>6.76</v>
       </c>
       <c r="I212">
-        <f>BSCallWithParams(C212:H212)</f>
+        <f t="shared" si="27"/>
         <v>32.155035960904065</v>
       </c>
     </row>
@@ -12226,7 +12233,7 @@
         <v>7.01</v>
       </c>
       <c r="I213">
-        <f>BSCallWithParams(C213:H213)</f>
+        <f t="shared" si="27"/>
         <v>32.981021368208268</v>
       </c>
     </row>
@@ -12250,7 +12257,7 @@
         <v>7.26</v>
       </c>
       <c r="I214">
-        <f>BSCallWithParams(C214:H214)</f>
+        <f t="shared" si="27"/>
         <v>33.796017957812623</v>
       </c>
     </row>
@@ -12274,7 +12281,7 @@
         <v>7.51</v>
       </c>
       <c r="I215">
-        <f>BSCallWithParams(C215:H215)</f>
+        <f t="shared" si="27"/>
         <v>34.600282249710233</v>
       </c>
     </row>
@@ -12298,7 +12305,7 @@
         <v>7.76</v>
       </c>
       <c r="I216">
-        <f>BSCallWithParams(C216:H216)</f>
+        <f t="shared" si="27"/>
         <v>35.394053336271746</v>
       </c>
     </row>
@@ -12322,7 +12329,7 @@
         <v>8.01</v>
       </c>
       <c r="I217">
-        <f>BSCallWithParams(C217:H217)</f>
+        <f t="shared" ref="I217:I235" si="28">BSCallWithParams(C217:H217)</f>
         <v>36.177554937631676</v>
       </c>
     </row>
@@ -12346,7 +12353,7 @@
         <v>8.26</v>
       </c>
       <c r="I218">
-        <f>BSCallWithParams(C218:H218)</f>
+        <f t="shared" si="28"/>
         <v>36.950997157282558</v>
       </c>
     </row>
@@ -12370,7 +12377,7 @@
         <v>8.51</v>
       </c>
       <c r="I219">
-        <f>BSCallWithParams(C219:H219)</f>
+        <f t="shared" si="28"/>
         <v>37.714577988684646</v>
       </c>
     </row>
@@ -12394,7 +12401,7 @@
         <v>8.76</v>
       </c>
       <c r="I220">
-        <f>BSCallWithParams(C220:H220)</f>
+        <f t="shared" si="28"/>
         <v>38.468484613918122</v>
       </c>
     </row>
@@ -12418,7 +12425,7 @@
         <v>9.01</v>
       </c>
       <c r="I221">
-        <f>BSCallWithParams(C221:H221)</f>
+        <f t="shared" si="28"/>
         <v>39.212894527722845</v>
       </c>
     </row>
@@ -12442,7 +12449,7 @@
         <v>9.26</v>
       </c>
       <c r="I222">
-        <f>BSCallWithParams(C222:H222)</f>
+        <f t="shared" si="28"/>
         <v>39.947976514196696</v>
       </c>
     </row>
@@ -12466,7 +12473,7 @@
         <v>9.51</v>
       </c>
       <c r="I223">
-        <f>BSCallWithParams(C223:H223)</f>
+        <f t="shared" si="28"/>
         <v>40.673891498582634</v>
       </c>
     </row>
@@ -12490,7 +12497,7 @@
         <v>9.76</v>
       </c>
       <c r="I224">
-        <f>BSCallWithParams(C224:H224)</f>
+        <f t="shared" si="28"/>
         <v>41.390793292695754</v>
       </c>
     </row>
@@ -12514,7 +12521,7 @@
         <v>2</v>
       </c>
       <c r="I225">
-        <f>BSCallWithParams(C225:H225)</f>
+        <f t="shared" si="28"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -12538,7 +12545,7 @@
         <v>2</v>
       </c>
       <c r="I226">
-        <f>BSCallWithParams(C226:H226)</f>
+        <f t="shared" si="28"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -12562,7 +12569,7 @@
         <v>2</v>
       </c>
       <c r="I227">
-        <f>BSCallWithParams(C227:H227)</f>
+        <f t="shared" si="28"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -12586,7 +12593,7 @@
         <v>2</v>
       </c>
       <c r="I228">
-        <f>BSCallWithParams(C228:H228)</f>
+        <f t="shared" si="28"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -12610,7 +12617,7 @@
         <v>2</v>
       </c>
       <c r="I229">
-        <f>BSCallWithParams(C229:H229)</f>
+        <f t="shared" si="28"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -12634,7 +12641,7 @@
         <v>2</v>
       </c>
       <c r="I230">
-        <f>BSCallWithParams(C230:H230)</f>
+        <f t="shared" si="28"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -12658,7 +12665,7 @@
         <v>2</v>
       </c>
       <c r="I231">
-        <f>BSCallWithParams(C231:H231)</f>
+        <f t="shared" si="28"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -12682,7 +12689,7 @@
         <v>2</v>
       </c>
       <c r="I232">
-        <f>BSCallWithParams(C232:H232)</f>
+        <f t="shared" si="28"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -12706,7 +12713,7 @@
         <v>2</v>
       </c>
       <c r="I233">
-        <f>BSCallWithParams(C233:H233)</f>
+        <f t="shared" si="28"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -12730,7 +12737,7 @@
         <v>2</v>
       </c>
       <c r="I234">
-        <f>BSCallWithParams(C234:H234)</f>
+        <f t="shared" si="28"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -12754,7 +12761,7 @@
         <v>2</v>
       </c>
       <c r="I235">
-        <f>BSCallWithParams(C235:H235)</f>
+        <f t="shared" si="28"/>
         <v>13.676732841942545</v>
       </c>
     </row>
@@ -12821,7 +12828,7 @@
         <v>2</v>
       </c>
       <c r="I241">
-        <f>BSCallWithParams(C241:H241)</f>
+        <f t="shared" ref="I241:I272" si="29">BSCallWithParams(C241:H241)</f>
         <v>13.103286192978352</v>
       </c>
       <c r="J241">
@@ -12844,7 +12851,7 @@
         <v>2</v>
       </c>
       <c r="P241">
-        <f>BSCallWithParams(J241:O241)</f>
+        <f t="shared" ref="P241:P272" si="30">BSCallWithParams(J241:O241)</f>
         <v>14.266093211058163</v>
       </c>
       <c r="Q241">
@@ -12865,7 +12872,7 @@
         <v>100</v>
       </c>
       <c r="D242">
-        <f t="shared" ref="D242:D291" si="16">100+B242</f>
+        <f t="shared" ref="D242:D291" si="31">100+B242</f>
         <v>100.5</v>
       </c>
       <c r="E242">
@@ -12881,14 +12888,14 @@
         <v>2</v>
       </c>
       <c r="I242">
-        <f>BSCallWithParams(C242:H242)</f>
+        <f t="shared" si="29"/>
         <v>13.388013404759128</v>
       </c>
       <c r="J242">
         <v>100</v>
       </c>
       <c r="K242">
-        <f t="shared" ref="K242:K291" si="17">100-B242</f>
+        <f t="shared" ref="K242:K291" si="32">100-B242</f>
         <v>99.5</v>
       </c>
       <c r="L242">
@@ -12904,11 +12911,11 @@
         <v>2</v>
       </c>
       <c r="P242">
-        <f>BSCallWithParams(J242:O242)</f>
+        <f t="shared" si="30"/>
         <v>13.969431264440459</v>
       </c>
       <c r="Q242">
-        <f t="shared" ref="Q242:Q291" si="18">(P242-I242)/(2*B242)</f>
+        <f t="shared" ref="Q242:Q291" si="33">(P242-I242)/(2*B242)</f>
         <v>0.58141785968133064</v>
       </c>
       <c r="R242">
@@ -12918,14 +12925,14 @@
     </row>
     <row r="243" spans="1:18">
       <c r="B243">
-        <f t="shared" ref="B243:B291" si="19">B242/2</f>
+        <f t="shared" ref="B243:B291" si="34">B242/2</f>
         <v>0.25</v>
       </c>
       <c r="C243">
         <v>100</v>
       </c>
       <c r="D243">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.25</v>
       </c>
       <c r="E243">
@@ -12941,14 +12948,14 @@
         <v>2</v>
       </c>
       <c r="I243">
-        <f>BSCallWithParams(C243:H243)</f>
+        <f t="shared" si="29"/>
         <v>13.531874870765236</v>
       </c>
       <c r="J243">
         <v>100</v>
       </c>
       <c r="K243">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.75</v>
       </c>
       <c r="L243">
@@ -12964,11 +12971,11 @@
         <v>2</v>
       </c>
       <c r="P243">
-        <f>BSCallWithParams(J243:O243)</f>
+        <f t="shared" si="30"/>
         <v>13.822585594160877</v>
       </c>
       <c r="Q243">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142144679128194</v>
       </c>
       <c r="R243">
@@ -12978,14 +12985,14 @@
     </row>
     <row r="244" spans="1:18">
       <c r="B244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>0.125</v>
       </c>
       <c r="C244">
         <v>100</v>
       </c>
       <c r="D244">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.125</v>
       </c>
       <c r="E244">
@@ -13001,14 +13008,14 @@
         <v>2</v>
       </c>
       <c r="I244">
-        <f>BSCallWithParams(C244:H244)</f>
+        <f t="shared" si="29"/>
         <v>13.60417939771574</v>
       </c>
       <c r="J244">
         <v>100</v>
       </c>
       <c r="K244">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.875</v>
       </c>
       <c r="L244">
@@ -13024,11 +13031,11 @@
         <v>2</v>
       </c>
       <c r="P244">
-        <f>BSCallWithParams(J244:O244)</f>
+        <f t="shared" si="30"/>
         <v>13.749534983599283</v>
       </c>
       <c r="Q244">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142234353417166</v>
       </c>
       <c r="R244">
@@ -13038,14 +13045,14 @@
     </row>
     <row r="245" spans="1:18">
       <c r="B245">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>6.25E-2</v>
       </c>
       <c r="C245">
         <v>100</v>
       </c>
       <c r="D245">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.0625</v>
       </c>
       <c r="E245">
@@ -13061,14 +13068,14 @@
         <v>2</v>
       </c>
       <c r="I245">
-        <f>BSCallWithParams(C245:H245)</f>
+        <f t="shared" si="29"/>
         <v>13.640425018706729</v>
       </c>
       <c r="J245">
         <v>100</v>
       </c>
       <c r="K245">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.9375</v>
       </c>
       <c r="L245">
@@ -13084,11 +13091,11 @@
         <v>2</v>
       </c>
       <c r="P245">
-        <f>BSCallWithParams(J245:O245)</f>
+        <f t="shared" si="30"/>
         <v>13.713102839671443</v>
       </c>
       <c r="Q245">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142256771770917</v>
       </c>
       <c r="R245">
@@ -13098,14 +13105,14 @@
     </row>
     <row r="246" spans="1:18">
       <c r="B246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>3.125E-2</v>
       </c>
       <c r="C246">
         <v>100</v>
       </c>
       <c r="D246">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.03125</v>
       </c>
       <c r="E246">
@@ -13121,14 +13128,14 @@
         <v>2</v>
       </c>
       <c r="I246">
-        <f>BSCallWithParams(C246:H246)</f>
+        <f t="shared" si="29"/>
         <v>13.658571156765781</v>
       </c>
       <c r="J246">
         <v>100</v>
       </c>
       <c r="K246">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.96875</v>
       </c>
       <c r="L246">
@@ -13144,11 +13151,11 @@
         <v>2</v>
       </c>
       <c r="P246">
-        <f>BSCallWithParams(J246:O246)</f>
+        <f t="shared" si="30"/>
         <v>13.694910070751042</v>
       </c>
       <c r="Q246">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5814226237641833</v>
       </c>
       <c r="R246">
@@ -13158,14 +13165,14 @@
     </row>
     <row r="247" spans="1:18">
       <c r="B247">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C247">
         <v>100</v>
       </c>
       <c r="D247">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.015625</v>
       </c>
       <c r="E247">
@@ -13181,14 +13188,14 @@
         <v>2</v>
       </c>
       <c r="I247">
-        <f>BSCallWithParams(C247:H247)</f>
+        <f t="shared" si="29"/>
         <v>13.667650056181536</v>
       </c>
       <c r="J247">
         <v>100</v>
       </c>
       <c r="K247">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.984375</v>
       </c>
       <c r="L247">
@@ -13204,11 +13211,11 @@
         <v>2</v>
       </c>
       <c r="P247">
-        <f>BSCallWithParams(J247:O247)</f>
+        <f t="shared" si="30"/>
         <v>13.685819513612032</v>
       </c>
       <c r="Q247">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142263777585868</v>
       </c>
       <c r="R247">
@@ -13218,14 +13225,14 @@
     </row>
     <row r="248" spans="1:18">
       <c r="B248">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C248">
         <v>100</v>
       </c>
       <c r="D248">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.0078125</v>
       </c>
       <c r="E248">
@@ -13241,14 +13248,14 @@
         <v>2</v>
       </c>
       <c r="I248">
-        <f>BSCallWithParams(C248:H248)</f>
+        <f t="shared" si="29"/>
         <v>13.672190963296124</v>
       </c>
       <c r="J248">
         <v>100</v>
       </c>
       <c r="K248">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.9921875</v>
       </c>
       <c r="L248">
@@ -13264,11 +13271,11 @@
         <v>2</v>
       </c>
       <c r="P248">
-        <f>BSCallWithParams(J248:O248)</f>
+        <f t="shared" si="30"/>
         <v>13.681275692066095</v>
       </c>
       <c r="Q248">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5814226412780954</v>
       </c>
       <c r="R248">
@@ -13278,14 +13285,14 @@
     </row>
     <row r="249" spans="1:18">
       <c r="B249">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>3.90625E-3</v>
       </c>
       <c r="C249">
         <v>100</v>
       </c>
       <c r="D249">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00390625</v>
       </c>
       <c r="E249">
@@ -13301,14 +13308,14 @@
         <v>2</v>
       </c>
       <c r="I249">
-        <f>BSCallWithParams(C249:H249)</f>
+        <f t="shared" si="29"/>
         <v>13.674461781181279</v>
       </c>
       <c r="J249">
         <v>100</v>
       </c>
       <c r="K249">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.99609375</v>
       </c>
       <c r="L249">
@@ -13324,11 +13331,11 @@
         <v>2</v>
       </c>
       <c r="P249">
-        <f>BSCallWithParams(J249:O249)</f>
+        <f t="shared" si="30"/>
         <v>13.679004145573082</v>
       </c>
       <c r="Q249">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142264215075556</v>
       </c>
       <c r="R249">
@@ -13338,14 +13345,14 @@
     </row>
     <row r="250" spans="1:18">
       <c r="B250">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C250">
         <v>100</v>
       </c>
       <c r="D250">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.001953125</v>
       </c>
       <c r="E250">
@@ -13361,14 +13368,14 @@
         <v>2</v>
       </c>
       <c r="I250">
-        <f>BSCallWithParams(C250:H250)</f>
+        <f t="shared" si="29"/>
         <v>13.675597281202833</v>
       </c>
       <c r="J250">
         <v>100</v>
       </c>
       <c r="K250">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.998046875</v>
       </c>
       <c r="L250">
@@ -13384,11 +13391,11 @@
         <v>2</v>
       </c>
       <c r="P250">
-        <f>BSCallWithParams(J250:O250)</f>
+        <f t="shared" si="30"/>
         <v>13.67786846339957</v>
       </c>
       <c r="Q250">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142264236448682</v>
       </c>
       <c r="R250">
@@ -13398,14 +13405,14 @@
     </row>
     <row r="251" spans="1:18">
       <c r="B251">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C251">
         <v>100</v>
       </c>
       <c r="D251">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.0009765625</v>
       </c>
       <c r="E251">
@@ -13421,14 +13428,14 @@
         <v>2</v>
       </c>
       <c r="I251">
-        <f>BSCallWithParams(C251:H251)</f>
+        <f t="shared" si="29"/>
         <v>13.676165053982999</v>
       </c>
       <c r="J251">
         <v>100</v>
       </c>
       <c r="K251">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.9990234375</v>
       </c>
       <c r="L251">
@@ -13444,11 +13451,11 @@
         <v>2</v>
       </c>
       <c r="P251">
-        <f>BSCallWithParams(J251:O251)</f>
+        <f t="shared" si="30"/>
         <v>13.677300645081438</v>
       </c>
       <c r="Q251">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142264240086661</v>
       </c>
       <c r="R251">
@@ -13458,14 +13465,14 @@
     </row>
     <row r="252" spans="1:18">
       <c r="B252">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C252">
         <v>100</v>
       </c>
       <c r="D252">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00048828125</v>
       </c>
       <c r="E252">
@@ -13481,14 +13488,14 @@
         <v>2</v>
       </c>
       <c r="I252">
-        <f>BSCallWithParams(C252:H252)</f>
+        <f t="shared" si="29"/>
         <v>13.676448946065314</v>
       </c>
       <c r="J252">
         <v>100</v>
       </c>
       <c r="K252">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.99951171875</v>
       </c>
       <c r="L252">
@@ -13504,11 +13511,11 @@
         <v>2</v>
       </c>
       <c r="P252">
-        <f>BSCallWithParams(J252:O252)</f>
+        <f t="shared" si="30"/>
         <v>13.677016741614587</v>
       </c>
       <c r="Q252">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142264245543629</v>
       </c>
       <c r="R252">
@@ -13518,14 +13525,14 @@
     </row>
     <row r="253" spans="1:18">
       <c r="B253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C253">
         <v>100</v>
       </c>
       <c r="D253">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.000244140625</v>
       </c>
       <c r="E253">
@@ -13541,14 +13548,14 @@
         <v>2</v>
       </c>
       <c r="I253">
-        <f>BSCallWithParams(C253:H253)</f>
+        <f t="shared" si="29"/>
         <v>13.676590893529564</v>
       </c>
       <c r="J253">
         <v>100</v>
       </c>
       <c r="K253">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999755859375</v>
       </c>
       <c r="L253">
@@ -13564,11 +13571,11 @@
         <v>2</v>
       </c>
       <c r="P253">
-        <f>BSCallWithParams(J253:O253)</f>
+        <f t="shared" si="30"/>
         <v>13.676874791304208</v>
       </c>
       <c r="Q253">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5814226424699882</v>
       </c>
       <c r="R253">
@@ -13578,14 +13585,14 @@
     </row>
     <row r="254" spans="1:18">
       <c r="B254">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C254">
         <v>100</v>
       </c>
       <c r="D254">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.0001220703125</v>
       </c>
       <c r="E254">
@@ -13601,14 +13608,14 @@
         <v>2</v>
       </c>
       <c r="I254">
-        <f>BSCallWithParams(C254:H254)</f>
+        <f t="shared" si="29"/>
         <v>13.676661867617455</v>
       </c>
       <c r="J254">
         <v>100</v>
       </c>
       <c r="K254">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.9998779296875</v>
       </c>
       <c r="L254">
@@ -13624,11 +13631,11 @@
         <v>2</v>
       </c>
       <c r="P254">
-        <f>BSCallWithParams(J254:O254)</f>
+        <f t="shared" si="30"/>
         <v>13.676803816504794</v>
       </c>
       <c r="Q254">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142264254274778</v>
       </c>
       <c r="R254">
@@ -13638,14 +13645,14 @@
     </row>
     <row r="255" spans="1:18">
       <c r="B255">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>6.103515625E-5</v>
       </c>
       <c r="C255">
         <v>100</v>
       </c>
       <c r="D255">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00006103515625</v>
       </c>
       <c r="E255">
@@ -13661,14 +13668,14 @@
         <v>2</v>
       </c>
       <c r="I255">
-        <f>BSCallWithParams(C255:H255)</f>
+        <f t="shared" si="29"/>
         <v>13.676697354750395</v>
       </c>
       <c r="J255">
         <v>100</v>
       </c>
       <c r="K255">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.99993896484375</v>
       </c>
       <c r="L255">
@@ -13684,11 +13691,11 @@
         <v>2</v>
       </c>
       <c r="P255">
-        <f>BSCallWithParams(J255:O255)</f>
+        <f t="shared" si="30"/>
         <v>13.676768329193997</v>
       </c>
       <c r="Q255">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.581422641989775</v>
       </c>
       <c r="R255">
@@ -13698,14 +13705,14 @@
     </row>
     <row r="256" spans="1:18">
       <c r="B256">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>3.0517578125E-5</v>
       </c>
       <c r="C256">
         <v>100</v>
       </c>
       <c r="D256">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00003051757812</v>
       </c>
       <c r="E256">
@@ -13721,14 +13728,14 @@
         <v>2</v>
       </c>
       <c r="I256">
-        <f>BSCallWithParams(C256:H256)</f>
+        <f t="shared" si="29"/>
         <v>13.676715098339038</v>
       </c>
       <c r="J256">
         <v>100</v>
       </c>
       <c r="K256">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999969482421875</v>
       </c>
       <c r="L256">
@@ -13744,11 +13751,11 @@
         <v>2</v>
       </c>
       <c r="P256">
-        <f>BSCallWithParams(J256:O256)</f>
+        <f t="shared" si="30"/>
         <v>13.676750585560882</v>
       </c>
       <c r="Q256">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142264268826693</v>
       </c>
       <c r="R256">
@@ -13758,14 +13765,14 @@
     </row>
     <row r="257" spans="2:18">
       <c r="B257">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.52587890625E-5</v>
       </c>
       <c r="C257">
         <v>100</v>
       </c>
       <c r="D257">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00001525878906</v>
       </c>
       <c r="E257">
@@ -13781,14 +13788,14 @@
         <v>2</v>
       </c>
       <c r="I257">
-        <f>BSCallWithParams(C257:H257)</f>
+        <f t="shared" si="29"/>
         <v>13.676723970138937</v>
       </c>
       <c r="J257">
         <v>100</v>
       </c>
       <c r="K257">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999984741210938</v>
       </c>
       <c r="L257">
@@ -13804,11 +13811,11 @@
         <v>2</v>
       </c>
       <c r="P257">
-        <f>BSCallWithParams(J257:O257)</f>
+        <f t="shared" si="30"/>
         <v>13.676741713749863</v>
       </c>
       <c r="Q257">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142264280468225</v>
       </c>
       <c r="R257">
@@ -13818,14 +13825,14 @@
     </row>
     <row r="258" spans="2:18">
       <c r="B258">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>7.62939453125E-6</v>
       </c>
       <c r="C258">
         <v>100</v>
       </c>
       <c r="D258">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000762939453</v>
       </c>
       <c r="E258">
@@ -13841,14 +13848,14 @@
         <v>2</v>
       </c>
       <c r="I258">
-        <f>BSCallWithParams(C258:H258)</f>
+        <f t="shared" si="29"/>
         <v>13.676728406040269</v>
       </c>
       <c r="J258">
         <v>100</v>
       </c>
       <c r="K258">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999992370605469</v>
       </c>
       <c r="L258">
@@ -13864,11 +13871,11 @@
         <v>2</v>
       </c>
       <c r="P258">
-        <f>BSCallWithParams(J258:O258)</f>
+        <f t="shared" si="30"/>
         <v>13.676737277845724</v>
       </c>
       <c r="Q258">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142264233902097</v>
       </c>
       <c r="R258">
@@ -13878,14 +13885,14 @@
     </row>
     <row r="259" spans="2:18">
       <c r="B259">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>3.814697265625E-6</v>
       </c>
       <c r="C259">
         <v>100</v>
       </c>
       <c r="D259">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000381469727</v>
       </c>
       <c r="E259">
@@ -13901,14 +13908,14 @@
         <v>2</v>
       </c>
       <c r="I259">
-        <f>BSCallWithParams(C259:H259)</f>
+        <f t="shared" si="29"/>
         <v>13.67673062399129</v>
       </c>
       <c r="J259">
         <v>100</v>
       </c>
       <c r="K259">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999996185302734</v>
       </c>
       <c r="L259">
@@ -13924,11 +13931,11 @@
         <v>2</v>
       </c>
       <c r="P259">
-        <f>BSCallWithParams(J259:O259)</f>
+        <f t="shared" si="30"/>
         <v>13.676735059894057</v>
       </c>
       <c r="Q259">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142264746129513</v>
       </c>
       <c r="R259">
@@ -13938,14 +13945,14 @@
     </row>
     <row r="260" spans="2:18">
       <c r="B260">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.9073486328125E-6</v>
       </c>
       <c r="C260">
         <v>100</v>
       </c>
       <c r="D260">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000190734863</v>
       </c>
       <c r="E260">
@@ -13961,14 +13968,14 @@
         <v>2</v>
       </c>
       <c r="I260">
-        <f>BSCallWithParams(C260:H260)</f>
+        <f t="shared" si="29"/>
         <v>13.676731732966871</v>
       </c>
       <c r="J260">
         <v>100</v>
       </c>
       <c r="K260">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999998092651367</v>
       </c>
       <c r="L260">
@@ -13984,11 +13991,11 @@
         <v>2</v>
       </c>
       <c r="P260">
-        <f>BSCallWithParams(J260:O260)</f>
+        <f t="shared" si="30"/>
         <v>13.676733950918248</v>
       </c>
       <c r="Q260">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142264559864998</v>
       </c>
       <c r="R260">
@@ -13998,14 +14005,14 @@
     </row>
     <row r="261" spans="2:18">
       <c r="B261">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>9.5367431640625E-7</v>
       </c>
       <c r="C261">
         <v>100</v>
       </c>
       <c r="D261">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000095367432</v>
       </c>
       <c r="E261">
@@ -14021,14 +14028,14 @@
         <v>2</v>
       </c>
       <c r="I261">
-        <f>BSCallWithParams(C261:H261)</f>
+        <f t="shared" si="29"/>
         <v>13.676732287454719</v>
       </c>
       <c r="J261">
         <v>100</v>
       </c>
       <c r="K261">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999046325684</v>
       </c>
       <c r="L261">
@@ -14044,11 +14051,11 @@
         <v>2</v>
       </c>
       <c r="P261">
-        <f>BSCallWithParams(J261:O261)</f>
+        <f t="shared" si="30"/>
         <v>13.676733396430393</v>
       </c>
       <c r="Q261">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142263814806938</v>
       </c>
       <c r="R261">
@@ -14058,14 +14065,14 @@
     </row>
     <row r="262" spans="2:18">
       <c r="B262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>4.76837158203125E-7</v>
       </c>
       <c r="C262">
         <v>100</v>
       </c>
       <c r="D262">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000047683716</v>
       </c>
       <c r="E262">
@@ -14081,14 +14088,14 @@
         <v>2</v>
       </c>
       <c r="I262">
-        <f>BSCallWithParams(C262:H262)</f>
+        <f t="shared" si="29"/>
         <v>13.676732564698654</v>
       </c>
       <c r="J262">
         <v>100</v>
       </c>
       <c r="K262">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999523162842</v>
       </c>
       <c r="L262">
@@ -14104,11 +14111,11 @@
         <v>2</v>
       </c>
       <c r="P262">
-        <f>BSCallWithParams(J262:O262)</f>
+        <f t="shared" si="30"/>
         <v>13.676733119186459</v>
       </c>
       <c r="Q262">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5814226046204567</v>
       </c>
       <c r="R262">
@@ -14118,14 +14125,14 @@
     </row>
     <row r="263" spans="2:18">
       <c r="B263">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>2.384185791015625E-7</v>
       </c>
       <c r="C263">
         <v>100</v>
       </c>
       <c r="D263">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000023841858</v>
       </c>
       <c r="E263">
@@ -14141,14 +14148,14 @@
         <v>2</v>
       </c>
       <c r="I263">
-        <f>BSCallWithParams(C263:H263)</f>
+        <f t="shared" si="29"/>
         <v>13.676732703320596</v>
       </c>
       <c r="J263">
         <v>100</v>
       </c>
       <c r="K263">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999761581421</v>
       </c>
       <c r="L263">
@@ -14164,11 +14171,11 @@
         <v>2</v>
       </c>
       <c r="P263">
-        <f>BSCallWithParams(J263:O263)</f>
+        <f t="shared" si="30"/>
         <v>13.676732980564502</v>
       </c>
       <c r="Q263">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142261207103729</v>
       </c>
       <c r="R263">
@@ -14178,14 +14185,14 @@
     </row>
     <row r="264" spans="2:18">
       <c r="B264">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.1920928955078125E-7</v>
       </c>
       <c r="C264">
         <v>100</v>
       </c>
       <c r="D264">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000011920929</v>
       </c>
       <c r="E264">
@@ -14201,14 +14208,14 @@
         <v>2</v>
       </c>
       <c r="I264">
-        <f>BSCallWithParams(C264:H264)</f>
+        <f t="shared" si="29"/>
         <v>13.676732772631567</v>
       </c>
       <c r="J264">
         <v>100</v>
       </c>
       <c r="K264">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.99999988079071</v>
       </c>
       <c r="L264">
@@ -14224,11 +14231,11 @@
         <v>2</v>
       </c>
       <c r="P264">
-        <f>BSCallWithParams(J264:O264)</f>
+        <f t="shared" si="30"/>
         <v>13.676732911253524</v>
       </c>
       <c r="Q264">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142262697219849</v>
       </c>
       <c r="R264">
@@ -14238,14 +14245,14 @@
     </row>
     <row r="265" spans="2:18">
       <c r="B265">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>5.9604644775390625E-8</v>
       </c>
       <c r="C265">
         <v>100</v>
       </c>
       <c r="D265">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000005960464</v>
       </c>
       <c r="E265">
@@ -14261,14 +14268,14 @@
         <v>2</v>
       </c>
       <c r="I265">
-        <f>BSCallWithParams(C265:H265)</f>
+        <f t="shared" si="29"/>
         <v>13.676732807287067</v>
       </c>
       <c r="J265">
         <v>100</v>
       </c>
       <c r="K265">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999940395355</v>
       </c>
       <c r="L265">
@@ -14284,11 +14291,11 @@
         <v>2</v>
       </c>
       <c r="P265">
-        <f>BSCallWithParams(J265:O265)</f>
+        <f t="shared" si="30"/>
         <v>13.676732876598024</v>
       </c>
       <c r="Q265">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142244815826416</v>
       </c>
       <c r="R265">
@@ -14298,14 +14305,14 @@
     </row>
     <row r="266" spans="2:18">
       <c r="B266">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>2.9802322387695313E-8</v>
       </c>
       <c r="C266">
         <v>100</v>
       </c>
       <c r="D266">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000002980232</v>
       </c>
       <c r="E266">
@@ -14321,14 +14328,14 @@
         <v>2</v>
       </c>
       <c r="I266">
-        <f>BSCallWithParams(C266:H266)</f>
+        <f t="shared" si="29"/>
         <v>13.676732824614795</v>
       </c>
       <c r="J266">
         <v>100</v>
       </c>
       <c r="K266">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999970197678</v>
       </c>
       <c r="L266">
@@ -14344,11 +14351,11 @@
         <v>2</v>
       </c>
       <c r="P266">
-        <f>BSCallWithParams(J266:O266)</f>
+        <f t="shared" si="30"/>
         <v>13.676732859270274</v>
       </c>
       <c r="Q266">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142244815826416</v>
       </c>
       <c r="R266">
@@ -14358,14 +14365,14 @@
     </row>
     <row r="267" spans="2:18">
       <c r="B267">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.4901161193847656E-8</v>
       </c>
       <c r="C267">
         <v>100</v>
       </c>
       <c r="D267">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000001490116</v>
       </c>
       <c r="E267">
@@ -14381,14 +14388,14 @@
         <v>2</v>
       </c>
       <c r="I267">
-        <f>BSCallWithParams(C267:H267)</f>
+        <f t="shared" si="29"/>
         <v>13.676732833278678</v>
       </c>
       <c r="J267">
         <v>100</v>
       </c>
       <c r="K267">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999985098839</v>
       </c>
       <c r="L267">
@@ -14404,11 +14411,11 @@
         <v>2</v>
       </c>
       <c r="P267">
-        <f>BSCallWithParams(J267:O267)</f>
+        <f t="shared" si="30"/>
         <v>13.676732850606413</v>
       </c>
       <c r="Q267">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142232894897461</v>
       </c>
       <c r="R267">
@@ -14418,14 +14425,14 @@
     </row>
     <row r="268" spans="2:18">
       <c r="B268">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>7.4505805969238281E-9</v>
       </c>
       <c r="C268">
         <v>100</v>
       </c>
       <c r="D268">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000745058</v>
       </c>
       <c r="E268">
@@ -14441,14 +14448,14 @@
         <v>2</v>
       </c>
       <c r="I268">
-        <f>BSCallWithParams(C268:H268)</f>
+        <f t="shared" si="29"/>
         <v>13.676732837610622</v>
       </c>
       <c r="J268">
         <v>100</v>
       </c>
       <c r="K268">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999992549419</v>
       </c>
       <c r="L268">
@@ -14464,11 +14471,11 @@
         <v>2</v>
       </c>
       <c r="P268">
-        <f>BSCallWithParams(J268:O268)</f>
+        <f t="shared" si="30"/>
         <v>13.676732846274469</v>
       </c>
       <c r="Q268">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5814208984375</v>
       </c>
       <c r="R268">
@@ -14478,14 +14485,14 @@
     </row>
     <row r="269" spans="2:18">
       <c r="B269">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>3.7252902984619141E-9</v>
       </c>
       <c r="C269">
         <v>100</v>
       </c>
       <c r="D269">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000372529</v>
       </c>
       <c r="E269">
@@ -14501,14 +14508,14 @@
         <v>2</v>
       </c>
       <c r="I269">
-        <f>BSCallWithParams(C269:H269)</f>
+        <f t="shared" si="29"/>
         <v>13.676732839776584</v>
       </c>
       <c r="J269">
         <v>100</v>
       </c>
       <c r="K269">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.99999999627471</v>
       </c>
       <c r="L269">
@@ -14524,11 +14531,11 @@
         <v>2</v>
       </c>
       <c r="P269">
-        <f>BSCallWithParams(J269:O269)</f>
+        <f t="shared" si="30"/>
         <v>13.676732844108521</v>
       </c>
       <c r="Q269">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58142280578613281</v>
       </c>
       <c r="R269">
@@ -14538,14 +14545,14 @@
     </row>
     <row r="270" spans="2:18">
       <c r="B270">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.862645149230957E-9</v>
       </c>
       <c r="C270">
         <v>100</v>
       </c>
       <c r="D270">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000186265</v>
       </c>
       <c r="E270">
@@ -14561,14 +14568,14 @@
         <v>2</v>
       </c>
       <c r="I270">
-        <f>BSCallWithParams(C270:H270)</f>
+        <f t="shared" si="29"/>
         <v>13.676732840859536</v>
       </c>
       <c r="J270">
         <v>100</v>
       </c>
       <c r="K270">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999998137355</v>
       </c>
       <c r="L270">
@@ -14584,11 +14591,11 @@
         <v>2</v>
       </c>
       <c r="P270">
-        <f>BSCallWithParams(J270:O270)</f>
+        <f t="shared" si="30"/>
         <v>13.67673284302554</v>
       </c>
       <c r="Q270">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58143234252929688</v>
       </c>
       <c r="R270">
@@ -14598,14 +14605,14 @@
     </row>
     <row r="271" spans="2:18">
       <c r="B271">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>9.3132257461547852E-10</v>
       </c>
       <c r="C271">
         <v>100</v>
       </c>
       <c r="D271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000093132</v>
       </c>
       <c r="E271">
@@ -14621,14 +14628,14 @@
         <v>2</v>
       </c>
       <c r="I271">
-        <f>BSCallWithParams(C271:H271)</f>
+        <f t="shared" si="29"/>
         <v>13.676732841401041</v>
       </c>
       <c r="J271">
         <v>100</v>
       </c>
       <c r="K271">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999068677</v>
       </c>
       <c r="L271">
@@ -14644,11 +14651,11 @@
         <v>2</v>
       </c>
       <c r="P271">
-        <f>BSCallWithParams(J271:O271)</f>
+        <f t="shared" si="30"/>
         <v>13.676732842484043</v>
       </c>
       <c r="Q271">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58143234252929688</v>
       </c>
       <c r="R271">
@@ -14658,14 +14665,14 @@
     </row>
     <row r="272" spans="2:18">
       <c r="B272">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>4.6566128730773926E-10</v>
       </c>
       <c r="C272">
         <v>100</v>
       </c>
       <c r="D272">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000046566</v>
       </c>
       <c r="E272">
@@ -14681,14 +14688,14 @@
         <v>2</v>
       </c>
       <c r="I272">
-        <f>BSCallWithParams(C272:H272)</f>
+        <f t="shared" si="29"/>
         <v>13.676732841671786</v>
       </c>
       <c r="J272">
         <v>100</v>
       </c>
       <c r="K272">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999534339</v>
       </c>
       <c r="L272">
@@ -14704,11 +14711,11 @@
         <v>2</v>
       </c>
       <c r="P272">
-        <f>BSCallWithParams(J272:O272)</f>
+        <f t="shared" si="30"/>
         <v>13.676732842213276</v>
       </c>
       <c r="Q272">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5814208984375</v>
       </c>
       <c r="R272">
@@ -14718,14 +14725,14 @@
     </row>
     <row r="273" spans="2:18">
       <c r="B273">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>2.3283064365386963E-10</v>
       </c>
       <c r="C273">
         <v>100</v>
       </c>
       <c r="D273">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000023283</v>
       </c>
       <c r="E273">
@@ -14741,14 +14748,14 @@
         <v>2</v>
       </c>
       <c r="I273">
-        <f>BSCallWithParams(C273:H273)</f>
+        <f t="shared" ref="I273:I291" si="35">BSCallWithParams(C273:H273)</f>
         <v>13.676732841807173</v>
       </c>
       <c r="J273">
         <v>100</v>
       </c>
       <c r="K273">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999767169</v>
       </c>
       <c r="L273">
@@ -14764,11 +14771,11 @@
         <v>2</v>
       </c>
       <c r="P273">
-        <f>BSCallWithParams(J273:O273)</f>
+        <f t="shared" ref="P273:P291" si="36">BSCallWithParams(J273:O273)</f>
         <v>13.676732842077932</v>
       </c>
       <c r="Q273">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.581451416015625</v>
       </c>
       <c r="R273">
@@ -14778,14 +14785,14 @@
     </row>
     <row r="274" spans="2:18">
       <c r="B274">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.1641532182693481E-10</v>
       </c>
       <c r="C274">
         <v>100</v>
       </c>
       <c r="D274">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000011642</v>
       </c>
       <c r="E274">
@@ -14801,14 +14808,14 @@
         <v>2</v>
       </c>
       <c r="I274">
-        <f>BSCallWithParams(C274:H274)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841874859</v>
       </c>
       <c r="J274">
         <v>100</v>
       </c>
       <c r="K274">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999883585</v>
       </c>
       <c r="L274">
@@ -14824,11 +14831,11 @@
         <v>2</v>
       </c>
       <c r="P274">
-        <f>BSCallWithParams(J274:O274)</f>
+        <f t="shared" si="36"/>
         <v>13.67673284201021</v>
       </c>
       <c r="Q274">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.581329345703125</v>
       </c>
       <c r="R274">
@@ -14838,14 +14845,14 @@
     </row>
     <row r="275" spans="2:18">
       <c r="B275">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>5.8207660913467407E-11</v>
       </c>
       <c r="C275">
         <v>100</v>
       </c>
       <c r="D275">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000005821</v>
       </c>
       <c r="E275">
@@ -14861,14 +14868,14 @@
         <v>2</v>
       </c>
       <c r="I275">
-        <f>BSCallWithParams(C275:H275)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841908731</v>
       </c>
       <c r="J275">
         <v>100</v>
       </c>
       <c r="K275">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999941792</v>
       </c>
       <c r="L275">
@@ -14884,11 +14891,11 @@
         <v>2</v>
       </c>
       <c r="P275">
-        <f>BSCallWithParams(J275:O275)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841976388</v>
       </c>
       <c r="Q275">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5811767578125</v>
       </c>
       <c r="R275">
@@ -14898,14 +14905,14 @@
     </row>
     <row r="276" spans="2:18">
       <c r="B276">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>2.9103830456733704E-11</v>
       </c>
       <c r="C276">
         <v>100</v>
       </c>
       <c r="D276">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.0000000000291</v>
       </c>
       <c r="E276">
@@ -14921,14 +14928,14 @@
         <v>2</v>
       </c>
       <c r="I276">
-        <f>BSCallWithParams(C276:H276)</f>
+        <f t="shared" si="35"/>
         <v>13.67673284192562</v>
       </c>
       <c r="J276">
         <v>100</v>
       </c>
       <c r="K276">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999970896</v>
       </c>
       <c r="L276">
@@ -14944,11 +14951,11 @@
         <v>2</v>
       </c>
       <c r="P276">
-        <f>BSCallWithParams(J276:O276)</f>
+        <f t="shared" si="36"/>
         <v>13.67673284195947</v>
       </c>
       <c r="Q276">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58154296875</v>
       </c>
       <c r="R276">
@@ -14958,14 +14965,14 @@
     </row>
     <row r="277" spans="2:18">
       <c r="B277">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.4551915228366852E-11</v>
       </c>
       <c r="C277">
         <v>100</v>
       </c>
       <c r="D277">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000001455</v>
       </c>
       <c r="E277">
@@ -14981,14 +14988,14 @@
         <v>2</v>
       </c>
       <c r="I277">
-        <f>BSCallWithParams(C277:H277)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841934076</v>
       </c>
       <c r="J277">
         <v>100</v>
       </c>
       <c r="K277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999985448</v>
       </c>
       <c r="L277">
@@ -15004,11 +15011,11 @@
         <v>2</v>
       </c>
       <c r="P277">
-        <f>BSCallWithParams(J277:O277)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841951001</v>
       </c>
       <c r="Q277">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.58154296875</v>
       </c>
       <c r="R277">
@@ -15018,14 +15025,14 @@
     </row>
     <row r="278" spans="2:18">
       <c r="B278">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>7.2759576141834259E-12</v>
       </c>
       <c r="C278">
         <v>100</v>
       </c>
       <c r="D278">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000000728</v>
       </c>
       <c r="E278">
@@ -15041,14 +15048,14 @@
         <v>2</v>
       </c>
       <c r="I278">
-        <f>BSCallWithParams(C278:H278)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841938311</v>
       </c>
       <c r="J278">
         <v>100</v>
       </c>
       <c r="K278">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999992724</v>
       </c>
       <c r="L278">
@@ -15064,11 +15071,11 @@
         <v>2</v>
       </c>
       <c r="P278">
-        <f>BSCallWithParams(J278:O278)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841946766</v>
       </c>
       <c r="Q278">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5810546875</v>
       </c>
       <c r="R278">
@@ -15078,14 +15085,14 @@
     </row>
     <row r="279" spans="2:18">
       <c r="B279">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>3.637978807091713E-12</v>
       </c>
       <c r="C279">
         <v>100</v>
       </c>
       <c r="D279">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000000364</v>
       </c>
       <c r="E279">
@@ -15101,14 +15108,14 @@
         <v>2</v>
       </c>
       <c r="I279">
-        <f>BSCallWithParams(C279:H279)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841940414</v>
       </c>
       <c r="J279">
         <v>100</v>
       </c>
       <c r="K279">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999996362</v>
       </c>
       <c r="L279">
@@ -15124,11 +15131,11 @@
         <v>2</v>
       </c>
       <c r="P279">
-        <f>BSCallWithParams(J279:O279)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841944627</v>
       </c>
       <c r="Q279">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5791015625</v>
       </c>
       <c r="R279">
@@ -15138,14 +15145,14 @@
     </row>
     <row r="280" spans="2:18">
       <c r="B280">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.8189894035458565E-12</v>
       </c>
       <c r="C280">
         <v>100</v>
       </c>
       <c r="D280">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000000182</v>
       </c>
       <c r="E280">
@@ -15161,14 +15168,14 @@
         <v>2</v>
       </c>
       <c r="I280">
-        <f>BSCallWithParams(C280:H280)</f>
+        <f t="shared" si="35"/>
         <v>13.67673284194148</v>
       </c>
       <c r="J280">
         <v>100</v>
       </c>
       <c r="K280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999998181</v>
       </c>
       <c r="L280">
@@ -15184,11 +15191,11 @@
         <v>2</v>
       </c>
       <c r="P280">
-        <f>BSCallWithParams(J280:O280)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841943618</v>
       </c>
       <c r="Q280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.587890625</v>
       </c>
       <c r="R280">
@@ -15198,14 +15205,14 @@
     </row>
     <row r="281" spans="2:18">
       <c r="B281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>9.0949470177292824E-13</v>
       </c>
       <c r="C281">
         <v>100</v>
       </c>
       <c r="D281">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000000091</v>
       </c>
       <c r="E281">
@@ -15221,14 +15228,14 @@
         <v>2</v>
       </c>
       <c r="I281">
-        <f>BSCallWithParams(C281:H281)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841942012</v>
       </c>
       <c r="J281">
         <v>100</v>
       </c>
       <c r="K281">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999999091</v>
       </c>
       <c r="L281">
@@ -15244,11 +15251,11 @@
         <v>2</v>
       </c>
       <c r="P281">
-        <f>BSCallWithParams(J281:O281)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841943078</v>
       </c>
       <c r="Q281">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5859375</v>
       </c>
       <c r="R281">
@@ -15258,14 +15265,14 @@
     </row>
     <row r="282" spans="2:18">
       <c r="B282">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>4.5474735088646412E-13</v>
       </c>
       <c r="C282">
         <v>100</v>
       </c>
       <c r="D282">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000000045</v>
       </c>
       <c r="E282">
@@ -15281,14 +15288,14 @@
         <v>2</v>
       </c>
       <c r="I282">
-        <f>BSCallWithParams(C282:H282)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841942282</v>
       </c>
       <c r="J282">
         <v>100</v>
       </c>
       <c r="K282">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999999545</v>
       </c>
       <c r="L282">
@@ -15304,11 +15311,11 @@
         <v>2</v>
       </c>
       <c r="P282">
-        <f>BSCallWithParams(J282:O282)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841942801</v>
       </c>
       <c r="Q282">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5703125</v>
       </c>
       <c r="R282">
@@ -15318,14 +15325,14 @@
     </row>
     <row r="283" spans="2:18">
       <c r="B283">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>2.2737367544323206E-13</v>
       </c>
       <c r="C283">
         <v>100</v>
       </c>
       <c r="D283">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000000023</v>
       </c>
       <c r="E283">
@@ -15341,14 +15348,14 @@
         <v>2</v>
       </c>
       <c r="I283">
-        <f>BSCallWithParams(C283:H283)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841942403</v>
       </c>
       <c r="J283">
         <v>100</v>
       </c>
       <c r="K283">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999999773</v>
       </c>
       <c r="L283">
@@ -15364,11 +15371,11 @@
         <v>2</v>
       </c>
       <c r="P283">
-        <f>BSCallWithParams(J283:O283)</f>
+        <f t="shared" si="36"/>
         <v>13.67673284194268</v>
       </c>
       <c r="Q283">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.609375</v>
       </c>
       <c r="R283">
@@ -15378,14 +15385,14 @@
     </row>
     <row r="284" spans="2:18">
       <c r="B284">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.1368683772161603E-13</v>
       </c>
       <c r="C284">
         <v>100</v>
       </c>
       <c r="D284">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000000011</v>
       </c>
       <c r="E284">
@@ -15401,14 +15408,14 @@
         <v>2</v>
       </c>
       <c r="I284">
-        <f>BSCallWithParams(C284:H284)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841942474</v>
       </c>
       <c r="J284">
         <v>100</v>
       </c>
       <c r="K284">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999999886</v>
       </c>
       <c r="L284">
@@ -15424,11 +15431,11 @@
         <v>2</v>
       </c>
       <c r="P284">
-        <f>BSCallWithParams(J284:O284)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841942638</v>
       </c>
       <c r="Q284">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.71875</v>
       </c>
       <c r="R284">
@@ -15438,14 +15445,14 @@
     </row>
     <row r="285" spans="2:18">
       <c r="B285">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>5.6843418860808015E-14</v>
       </c>
       <c r="C285">
         <v>100</v>
       </c>
       <c r="D285">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000000006</v>
       </c>
       <c r="E285">
@@ -15461,14 +15468,14 @@
         <v>2</v>
       </c>
       <c r="I285">
-        <f>BSCallWithParams(C285:H285)</f>
+        <f t="shared" si="35"/>
         <v>13.67673284194251</v>
       </c>
       <c r="J285">
         <v>100</v>
       </c>
       <c r="K285">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999999943</v>
       </c>
       <c r="L285">
@@ -15484,11 +15491,11 @@
         <v>2</v>
       </c>
       <c r="P285">
-        <f>BSCallWithParams(J285:O285)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841942574</v>
       </c>
       <c r="Q285">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0.5625</v>
       </c>
       <c r="R285">
@@ -15498,14 +15505,14 @@
     </row>
     <row r="286" spans="2:18">
       <c r="B286">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>2.8421709430404007E-14</v>
       </c>
       <c r="C286">
         <v>100</v>
       </c>
       <c r="D286">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000000003</v>
       </c>
       <c r="E286">
@@ -15521,14 +15528,14 @@
         <v>2</v>
       </c>
       <c r="I286">
-        <f>BSCallWithParams(C286:H286)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841942552</v>
       </c>
       <c r="J286">
         <v>100</v>
       </c>
       <c r="K286">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999999972</v>
       </c>
       <c r="L286">
@@ -15544,11 +15551,11 @@
         <v>2</v>
       </c>
       <c r="P286">
-        <f>BSCallWithParams(J286:O286)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841942538</v>
       </c>
       <c r="Q286">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>-0.25</v>
       </c>
       <c r="R286">
@@ -15558,14 +15565,14 @@
     </row>
     <row r="287" spans="2:18">
       <c r="B287">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.4210854715202004E-14</v>
       </c>
       <c r="C287">
         <v>100</v>
       </c>
       <c r="D287">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100.00000000000001</v>
       </c>
       <c r="E287">
@@ -15581,14 +15588,14 @@
         <v>2</v>
       </c>
       <c r="I287">
-        <f>BSCallWithParams(C287:H287)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841942552</v>
       </c>
       <c r="J287">
         <v>100</v>
       </c>
       <c r="K287">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>99.999999999999986</v>
       </c>
       <c r="L287">
@@ -15604,11 +15611,11 @@
         <v>2</v>
       </c>
       <c r="P287">
-        <f>BSCallWithParams(J287:O287)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841942538</v>
       </c>
       <c r="Q287">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>-0.5</v>
       </c>
       <c r="R287">
@@ -15618,14 +15625,14 @@
     </row>
     <row r="288" spans="2:18">
       <c r="B288">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>7.1054273576010019E-15</v>
       </c>
       <c r="C288">
         <v>100</v>
       </c>
       <c r="D288">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="E288">
@@ -15641,14 +15648,14 @@
         <v>2</v>
       </c>
       <c r="I288">
-        <f>BSCallWithParams(C288:H288)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841942545</v>
       </c>
       <c r="J288">
         <v>100</v>
       </c>
       <c r="K288">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="L288">
@@ -15664,11 +15671,11 @@
         <v>2</v>
       </c>
       <c r="P288">
-        <f>BSCallWithParams(J288:O288)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841942545</v>
       </c>
       <c r="Q288">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R288">
@@ -15678,14 +15685,14 @@
     </row>
     <row r="289" spans="2:18">
       <c r="B289">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>3.5527136788005009E-15</v>
       </c>
       <c r="C289">
         <v>100</v>
       </c>
       <c r="D289">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="E289">
@@ -15701,14 +15708,14 @@
         <v>2</v>
       </c>
       <c r="I289">
-        <f>BSCallWithParams(C289:H289)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841942545</v>
       </c>
       <c r="J289">
         <v>100</v>
       </c>
       <c r="K289">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="L289">
@@ -15724,11 +15731,11 @@
         <v>2</v>
       </c>
       <c r="P289">
-        <f>BSCallWithParams(J289:O289)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841942545</v>
       </c>
       <c r="Q289">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R289">
@@ -15738,14 +15745,14 @@
     </row>
     <row r="290" spans="2:18">
       <c r="B290">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.7763568394002505E-15</v>
       </c>
       <c r="C290">
         <v>100</v>
       </c>
       <c r="D290">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="E290">
@@ -15761,14 +15768,14 @@
         <v>2</v>
       </c>
       <c r="I290">
-        <f>BSCallWithParams(C290:H290)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841942545</v>
       </c>
       <c r="J290">
         <v>100</v>
       </c>
       <c r="K290">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="L290">
@@ -15784,11 +15791,11 @@
         <v>2</v>
       </c>
       <c r="P290">
-        <f>BSCallWithParams(J290:O290)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841942545</v>
       </c>
       <c r="Q290">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R290">
@@ -15798,14 +15805,14 @@
     </row>
     <row r="291" spans="2:18">
       <c r="B291">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>8.8817841970012523E-16</v>
       </c>
       <c r="C291">
         <v>100</v>
       </c>
       <c r="D291">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="E291">
@@ -15821,14 +15828,14 @@
         <v>2</v>
       </c>
       <c r="I291">
-        <f>BSCallWithParams(C291:H291)</f>
+        <f t="shared" si="35"/>
         <v>13.676732841942545</v>
       </c>
       <c r="J291">
         <v>100</v>
       </c>
       <c r="K291">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="L291">
@@ -15844,11 +15851,11 @@
         <v>2</v>
       </c>
       <c r="P291">
-        <f>BSCallWithParams(J291:O291)</f>
+        <f t="shared" si="36"/>
         <v>13.676732841942545</v>
       </c>
       <c r="Q291">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R291">
@@ -15858,7 +15865,7 @@
     </row>
     <row r="292" spans="2:18">
       <c r="Q292">
-        <f t="shared" ref="Q292:Q293" si="20">I292-P292</f>
+        <f t="shared" ref="Q292:Q293" si="37">I292-P292</f>
         <v>0</v>
       </c>
       <c r="R292">
@@ -15868,7 +15875,7 @@
     </row>
     <row r="293" spans="2:18">
       <c r="Q293">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -15908,7 +15915,7 @@
         <v>0.90483741803595952</v>
       </c>
       <c r="J297">
-        <f>BSZeroCouponBondWithParams(C297:H297)</f>
+        <f t="shared" ref="J297:J328" si="38">BSZeroCouponBondWithParams(C297:H297)</f>
         <v>0.90483741803595952</v>
       </c>
       <c r="K297" t="b">
@@ -15940,11 +15947,11 @@
         <v>0.88692043671715748</v>
       </c>
       <c r="J298">
-        <f>BSZeroCouponBondWithParams(C298:H298)</f>
+        <f t="shared" si="38"/>
         <v>0.88692043671715748</v>
       </c>
       <c r="K298" t="b">
-        <f t="shared" ref="K298:K347" si="21">I298=J298</f>
+        <f t="shared" ref="K298:K347" si="39">I298=J298</f>
         <v>1</v>
       </c>
     </row>
@@ -15953,7 +15960,7 @@
         <v>52</v>
       </c>
       <c r="D299">
-        <f t="shared" ref="D299:D330" si="22">100+B299</f>
+        <f t="shared" ref="D299" si="40">100+B299</f>
         <v>100</v>
       </c>
       <c r="E299">
@@ -15973,11 +15980,11 @@
         <v>0.86935823539880586</v>
       </c>
       <c r="J299">
-        <f>BSZeroCouponBondWithParams(C299:H299)</f>
+        <f t="shared" si="38"/>
         <v>0.86935823539880586</v>
       </c>
       <c r="K299" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16005,11 +16012,11 @@
         <v>0.85214378896621135</v>
       </c>
       <c r="J300">
-        <f>BSZeroCouponBondWithParams(C300:H300)</f>
+        <f t="shared" si="38"/>
         <v>0.85214378896621135</v>
       </c>
       <c r="K300" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16018,7 +16025,7 @@
         <v>54</v>
       </c>
       <c r="D301">
-        <f t="shared" ref="D301:D347" si="23">100+B301</f>
+        <f t="shared" ref="D301" si="41">100+B301</f>
         <v>100</v>
       </c>
       <c r="E301">
@@ -16038,11 +16045,11 @@
         <v>0.835270211411272</v>
       </c>
       <c r="J301">
-        <f>BSZeroCouponBondWithParams(C301:H301)</f>
+        <f t="shared" si="38"/>
         <v>0.835270211411272</v>
       </c>
       <c r="K301" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16070,11 +16077,11 @@
         <v>0.81873075307798182</v>
       </c>
       <c r="J302">
-        <f>BSZeroCouponBondWithParams(C302:H302)</f>
+        <f t="shared" si="38"/>
         <v>0.81873075307798182</v>
       </c>
       <c r="K302" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16083,7 +16090,7 @@
         <v>56</v>
       </c>
       <c r="D303">
-        <f t="shared" ref="D303:D347" si="24">100+B303</f>
+        <f t="shared" ref="D303" si="42">100+B303</f>
         <v>100</v>
       </c>
       <c r="E303">
@@ -16103,11 +16110,11 @@
         <v>0.80251879796247849</v>
       </c>
       <c r="J303">
-        <f>BSZeroCouponBondWithParams(C303:H303)</f>
+        <f t="shared" si="38"/>
         <v>0.80251879796247849</v>
       </c>
       <c r="K303" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16135,11 +16142,11 @@
         <v>0.78662786106655347</v>
       </c>
       <c r="J304">
-        <f>BSZeroCouponBondWithParams(C304:H304)</f>
+        <f t="shared" si="38"/>
         <v>0.78662786106655347</v>
       </c>
       <c r="K304" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16148,7 +16155,7 @@
         <v>58</v>
       </c>
       <c r="D305">
-        <f t="shared" ref="D305:D347" si="25">100+B305</f>
+        <f t="shared" ref="D305" si="43">100+B305</f>
         <v>100</v>
       </c>
       <c r="E305">
@@ -16168,11 +16175,11 @@
         <v>0.77105158580356625</v>
       </c>
       <c r="J305">
-        <f>BSZeroCouponBondWithParams(C305:H305)</f>
+        <f t="shared" si="38"/>
         <v>0.77105158580356625</v>
       </c>
       <c r="K305" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16200,11 +16207,11 @@
         <v>0.75578374145572547</v>
       </c>
       <c r="J306">
-        <f>BSZeroCouponBondWithParams(C306:H306)</f>
+        <f t="shared" si="38"/>
         <v>0.75578374145572547</v>
       </c>
       <c r="K306" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16213,7 +16220,7 @@
         <v>60</v>
       </c>
       <c r="D307">
-        <f t="shared" ref="D307:D347" si="26">100+B307</f>
+        <f t="shared" ref="D307" si="44">100+B307</f>
         <v>100</v>
       </c>
       <c r="E307">
@@ -16233,11 +16240,11 @@
         <v>0.74081822068171788</v>
       </c>
       <c r="J307">
-        <f>BSZeroCouponBondWithParams(C307:H307)</f>
+        <f t="shared" si="38"/>
         <v>0.74081822068171788</v>
       </c>
       <c r="K307" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16265,11 +16272,11 @@
         <v>0.72614903707369094</v>
       </c>
       <c r="J308">
-        <f>BSZeroCouponBondWithParams(C308:H308)</f>
+        <f t="shared" si="38"/>
         <v>0.72614903707369094</v>
       </c>
       <c r="K308" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16278,7 +16285,7 @@
         <v>62</v>
       </c>
       <c r="D309">
-        <f t="shared" ref="D309:D347" si="27">100+B309</f>
+        <f t="shared" ref="D309" si="45">100+B309</f>
         <v>100</v>
       </c>
       <c r="E309">
@@ -16298,11 +16305,11 @@
         <v>0.71177032276260965</v>
       </c>
       <c r="J309">
-        <f>BSZeroCouponBondWithParams(C309:H309)</f>
+        <f t="shared" si="38"/>
         <v>0.71177032276260965</v>
       </c>
       <c r="K309" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16330,11 +16337,11 @@
         <v>0.69767632607103103</v>
       </c>
       <c r="J310">
-        <f>BSZeroCouponBondWithParams(C310:H310)</f>
+        <f t="shared" si="38"/>
         <v>0.69767632607103103</v>
       </c>
       <c r="K310" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16343,7 +16350,7 @@
         <v>64</v>
       </c>
       <c r="D311">
-        <f t="shared" ref="D311:D347" si="28">100+B311</f>
+        <f t="shared" ref="D311" si="46">100+B311</f>
         <v>100</v>
       </c>
       <c r="E311">
@@ -16363,11 +16370,11 @@
         <v>0.68386140921235583</v>
       </c>
       <c r="J311">
-        <f>BSZeroCouponBondWithParams(C311:H311)</f>
+        <f t="shared" si="38"/>
         <v>0.68386140921235583</v>
       </c>
       <c r="K311" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16395,11 +16402,11 @@
         <v>0.67032004603563933</v>
       </c>
       <c r="J312">
-        <f>BSZeroCouponBondWithParams(C312:H312)</f>
+        <f t="shared" si="38"/>
         <v>0.67032004603563933</v>
       </c>
       <c r="K312" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16408,7 +16415,7 @@
         <v>66</v>
       </c>
       <c r="D313">
-        <f t="shared" ref="D313:D347" si="29">100+B313</f>
+        <f t="shared" ref="D313" si="47">100+B313</f>
         <v>100</v>
       </c>
       <c r="E313">
@@ -16428,11 +16435,11 @@
         <v>0.65704681981505675</v>
       </c>
       <c r="J313">
-        <f>BSZeroCouponBondWithParams(C313:H313)</f>
+        <f t="shared" si="38"/>
         <v>0.65704681981505675</v>
       </c>
       <c r="K313" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16460,11 +16467,11 @@
         <v>0.64403642108314141</v>
       </c>
       <c r="J314">
-        <f>BSZeroCouponBondWithParams(C314:H314)</f>
+        <f t="shared" si="38"/>
         <v>0.64403642108314141</v>
       </c>
       <c r="K314" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16473,7 +16480,7 @@
         <v>68</v>
       </c>
       <c r="D315">
-        <f t="shared" ref="D315:D347" si="30">100+B315</f>
+        <f t="shared" ref="D315" si="48">100+B315</f>
         <v>100</v>
       </c>
       <c r="E315">
@@ -16493,11 +16500,11 @@
         <v>0.63128364550692595</v>
       </c>
       <c r="J315">
-        <f>BSZeroCouponBondWithParams(C315:H315)</f>
+        <f t="shared" si="38"/>
         <v>0.63128364550692595</v>
       </c>
       <c r="K315" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16525,11 +16532,11 @@
         <v>0.61878339180614084</v>
       </c>
       <c r="J316">
-        <f>BSZeroCouponBondWithParams(C316:H316)</f>
+        <f t="shared" si="38"/>
         <v>0.61878339180614084</v>
       </c>
       <c r="K316" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16538,7 +16545,7 @@
         <v>70</v>
       </c>
       <c r="D317">
-        <f t="shared" ref="D317:D347" si="31">100+B317</f>
+        <f t="shared" ref="D317" si="49">100+B317</f>
         <v>100</v>
       </c>
       <c r="E317">
@@ -16558,11 +16565,11 @@
         <v>0.60653065971263342</v>
       </c>
       <c r="J317">
-        <f>BSZeroCouponBondWithParams(C317:H317)</f>
+        <f t="shared" si="38"/>
         <v>0.60653065971263342</v>
       </c>
       <c r="K317" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16590,11 +16597,11 @@
         <v>0.59452054797019438</v>
       </c>
       <c r="J318">
-        <f>BSZeroCouponBondWithParams(C318:H318)</f>
+        <f t="shared" si="38"/>
         <v>0.59452054797019438</v>
       </c>
       <c r="K318" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16603,7 +16610,7 @@
         <v>72</v>
       </c>
       <c r="D319">
-        <f t="shared" ref="D319:D347" si="32">100+B319</f>
+        <f t="shared" ref="D319" si="50">100+B319</f>
         <v>100</v>
       </c>
       <c r="E319">
@@ -16623,11 +16630,11 @@
         <v>0.58274825237398964</v>
       </c>
       <c r="J319">
-        <f>BSZeroCouponBondWithParams(C319:H319)</f>
+        <f t="shared" si="38"/>
         <v>0.58274825237398964</v>
       </c>
       <c r="K319" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16655,11 +16662,11 @@
         <v>0.57120906384881487</v>
       </c>
       <c r="J320">
-        <f>BSZeroCouponBondWithParams(C320:H320)</f>
+        <f t="shared" si="38"/>
         <v>0.57120906384881487</v>
       </c>
       <c r="K320" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16668,7 +16675,7 @@
         <v>74</v>
       </c>
       <c r="D321">
-        <f t="shared" ref="D321:D347" si="33">100+B321</f>
+        <f t="shared" ref="D321" si="51">100+B321</f>
         <v>100</v>
       </c>
       <c r="E321">
@@ -16688,11 +16695,11 @@
         <v>0.55989836656540204</v>
       </c>
       <c r="J321">
-        <f>BSZeroCouponBondWithParams(C321:H321)</f>
+        <f t="shared" si="38"/>
         <v>0.55989836656540204</v>
       </c>
       <c r="K321" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16720,11 +16727,11 @@
         <v>0.5488116360940265</v>
       </c>
       <c r="J322">
-        <f>BSZeroCouponBondWithParams(C322:H322)</f>
+        <f t="shared" si="38"/>
         <v>0.5488116360940265</v>
       </c>
       <c r="K322" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16733,7 +16740,7 @@
         <v>76</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D347" si="34">100+B323</f>
+        <f t="shared" ref="D323" si="52">100+B323</f>
         <v>100</v>
       </c>
       <c r="E323">
@@ -16753,11 +16760,11 @@
         <v>0.53794443759467447</v>
       </c>
       <c r="J323">
-        <f>BSZeroCouponBondWithParams(C323:H323)</f>
+        <f t="shared" si="38"/>
         <v>0.53794443759467447</v>
       </c>
       <c r="K323" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16785,11 +16792,11 @@
         <v>0.52729242404304855</v>
       </c>
       <c r="J324">
-        <f>BSZeroCouponBondWithParams(C324:H324)</f>
+        <f t="shared" si="38"/>
         <v>0.52729242404304855</v>
       </c>
       <c r="K324" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16798,7 +16805,7 @@
         <v>78</v>
       </c>
       <c r="D325">
-        <f t="shared" ref="D325:D347" si="35">100+B325</f>
+        <f t="shared" ref="D325" si="53">100+B325</f>
         <v>100</v>
       </c>
       <c r="E325">
@@ -16818,11 +16825,11 @@
         <v>0.51685133449169918</v>
       </c>
       <c r="J325">
-        <f>BSZeroCouponBondWithParams(C325:H325)</f>
+        <f t="shared" si="38"/>
         <v>0.51685133449169918</v>
       </c>
       <c r="K325" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16850,11 +16857,11 @@
         <v>0.50661699236558955</v>
       </c>
       <c r="J326">
-        <f>BSZeroCouponBondWithParams(C326:H326)</f>
+        <f t="shared" si="38"/>
         <v>0.50661699236558955</v>
       </c>
       <c r="K326" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16863,7 +16870,7 @@
         <v>80</v>
       </c>
       <c r="D327">
-        <f t="shared" ref="D327:D347" si="36">100+B327</f>
+        <f t="shared" ref="D327" si="54">100+B327</f>
         <v>100</v>
       </c>
       <c r="E327">
@@ -16883,11 +16890,11 @@
         <v>0.49658530379140953</v>
       </c>
       <c r="J327">
-        <f>BSZeroCouponBondWithParams(C327:H327)</f>
+        <f t="shared" si="38"/>
         <v>0.49658530379140953</v>
       </c>
       <c r="K327" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16915,11 +16922,11 @@
         <v>0.48675225595997168</v>
       </c>
       <c r="J328">
-        <f>BSZeroCouponBondWithParams(C328:H328)</f>
+        <f t="shared" si="38"/>
         <v>0.48675225595997168</v>
       </c>
       <c r="K328" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16928,7 +16935,7 @@
         <v>82</v>
       </c>
       <c r="D329">
-        <f t="shared" ref="D329:D347" si="37">100+B329</f>
+        <f t="shared" ref="D329" si="55">100+B329</f>
         <v>100</v>
       </c>
       <c r="E329">
@@ -16948,11 +16955,11 @@
         <v>0.47711391552103438</v>
       </c>
       <c r="J329">
-        <f>BSZeroCouponBondWithParams(C329:H329)</f>
+        <f t="shared" ref="J329:J347" si="56">BSZeroCouponBondWithParams(C329:H329)</f>
         <v>0.47711391552103438</v>
       </c>
       <c r="K329" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16980,11 +16987,11 @@
         <v>0.46766642700990924</v>
       </c>
       <c r="J330">
-        <f>BSZeroCouponBondWithParams(C330:H330)</f>
+        <f t="shared" si="56"/>
         <v>0.46766642700990924</v>
       </c>
       <c r="K330" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -16993,7 +17000,7 @@
         <v>84</v>
       </c>
       <c r="D331">
-        <f t="shared" ref="D331:D347" si="38">100+B331</f>
+        <f t="shared" ref="D331" si="57">100+B331</f>
         <v>100</v>
       </c>
       <c r="E331">
@@ -17013,11 +17020,11 @@
         <v>0.45840601130522352</v>
       </c>
       <c r="J331">
-        <f>BSZeroCouponBondWithParams(C331:H331)</f>
+        <f t="shared" si="56"/>
         <v>0.45840601130522352</v>
       </c>
       <c r="K331" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17045,11 +17052,11 @@
         <v>0.44932896411722156</v>
       </c>
       <c r="J332">
-        <f>BSZeroCouponBondWithParams(C332:H332)</f>
+        <f t="shared" si="56"/>
         <v>0.44932896411722156</v>
       </c>
       <c r="K332" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17058,7 +17065,7 @@
         <v>86</v>
       </c>
       <c r="D333">
-        <f t="shared" ref="D333:D347" si="39">100+B333</f>
+        <f t="shared" ref="D333" si="58">100+B333</f>
         <v>100</v>
       </c>
       <c r="E333">
@@ -17078,11 +17085,11 @@
         <v>0.4404316545059993</v>
       </c>
       <c r="J333">
-        <f>BSZeroCouponBondWithParams(C333:H333)</f>
+        <f t="shared" si="56"/>
         <v>0.4404316545059993</v>
       </c>
       <c r="K333" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17110,11 +17117,11 @@
         <v>0.43171052342907973</v>
       </c>
       <c r="J334">
-        <f>BSZeroCouponBondWithParams(C334:H334)</f>
+        <f t="shared" si="56"/>
         <v>0.43171052342907973</v>
       </c>
       <c r="K334" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17123,7 +17130,7 @@
         <v>88</v>
       </c>
       <c r="D335">
-        <f t="shared" ref="D335:D347" si="40">100+B335</f>
+        <f t="shared" ref="D335" si="59">100+B335</f>
         <v>100</v>
       </c>
       <c r="E335">
@@ -17143,11 +17150,11 @@
         <v>0.42316208231774882</v>
       </c>
       <c r="J335">
-        <f>BSZeroCouponBondWithParams(C335:H335)</f>
+        <f t="shared" si="56"/>
         <v>0.42316208231774882</v>
       </c>
       <c r="K335" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17175,11 +17182,11 @@
         <v>0.41478291168158138</v>
       </c>
       <c r="J336">
-        <f>BSZeroCouponBondWithParams(C336:H336)</f>
+        <f t="shared" si="56"/>
         <v>0.41478291168158138</v>
       </c>
       <c r="K336" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17188,7 +17195,7 @@
         <v>90</v>
       </c>
       <c r="D337">
-        <f t="shared" ref="D337:D347" si="41">100+B337</f>
+        <f t="shared" ref="D337" si="60">100+B337</f>
         <v>100</v>
       </c>
       <c r="E337">
@@ -17208,11 +17215,11 @@
         <v>0.40656965974059911</v>
       </c>
       <c r="J337">
-        <f>BSZeroCouponBondWithParams(C337:H337)</f>
+        <f t="shared" si="56"/>
         <v>0.40656965974059911</v>
       </c>
       <c r="K337" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17240,11 +17247,11 @@
         <v>0.39851904108451414</v>
       </c>
       <c r="J338">
-        <f>BSZeroCouponBondWithParams(C338:H338)</f>
+        <f t="shared" si="56"/>
         <v>0.39851904108451414</v>
       </c>
       <c r="K338" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17253,7 +17260,7 @@
         <v>92</v>
       </c>
       <c r="D339">
-        <f t="shared" ref="D339:D347" si="42">100+B339</f>
+        <f t="shared" ref="D339" si="61">100+B339</f>
         <v>100</v>
       </c>
       <c r="E339">
@@ -17273,11 +17280,11 @@
         <v>0.39062783535852114</v>
       </c>
       <c r="J339">
-        <f>BSZeroCouponBondWithParams(C339:H339)</f>
+        <f t="shared" si="56"/>
         <v>0.39062783535852114</v>
       </c>
       <c r="K339" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17305,11 +17312,11 @@
         <v>0.38289288597511206</v>
       </c>
       <c r="J340">
-        <f>BSZeroCouponBondWithParams(C340:H340)</f>
+        <f t="shared" si="56"/>
         <v>0.38289288597511206</v>
       </c>
       <c r="K340" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17318,7 +17325,7 @@
         <v>94</v>
       </c>
       <c r="D341">
-        <f t="shared" ref="D341:D347" si="43">100+B341</f>
+        <f t="shared" ref="D341" si="62">100+B341</f>
         <v>100</v>
       </c>
       <c r="E341">
@@ -17338,11 +17345,11 @@
         <v>0.37531109885139957</v>
       </c>
       <c r="J341">
-        <f>BSZeroCouponBondWithParams(C341:H341)</f>
+        <f t="shared" si="56"/>
         <v>0.37531109885139957</v>
       </c>
       <c r="K341" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17370,11 +17377,11 @@
         <v>0.36787944117144233</v>
       </c>
       <c r="J342">
-        <f>BSZeroCouponBondWithParams(C342:H342)</f>
+        <f t="shared" si="56"/>
         <v>0.36787944117144233</v>
       </c>
       <c r="K342" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17383,7 +17390,7 @@
         <v>96</v>
       </c>
       <c r="D343">
-        <f t="shared" ref="D343:D347" si="44">100+B343</f>
+        <f t="shared" ref="D343" si="63">100+B343</f>
         <v>100</v>
       </c>
       <c r="E343">
@@ -17403,11 +17410,11 @@
         <v>0.3605949401730783</v>
       </c>
       <c r="J343">
-        <f>BSZeroCouponBondWithParams(C343:H343)</f>
+        <f t="shared" si="56"/>
         <v>0.3605949401730783</v>
       </c>
       <c r="K343" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17435,11 +17442,11 @@
         <v>0.35345468195878016</v>
       </c>
       <c r="J344">
-        <f>BSZeroCouponBondWithParams(C344:H344)</f>
+        <f t="shared" si="56"/>
         <v>0.35345468195878016</v>
       </c>
       <c r="K344" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17448,7 +17455,7 @@
         <v>98</v>
       </c>
       <c r="D345">
-        <f t="shared" ref="D345:D347" si="45">100+B345</f>
+        <f t="shared" ref="D345" si="64">100+B345</f>
         <v>100</v>
       </c>
       <c r="E345">
@@ -17468,11 +17475,11 @@
         <v>0.3464558103300574</v>
       </c>
       <c r="J345">
-        <f>BSZeroCouponBondWithParams(C345:H345)</f>
+        <f t="shared" si="56"/>
         <v>0.3464558103300574</v>
       </c>
       <c r="K345" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17500,11 +17507,11 @@
         <v>0.33959552564493911</v>
       </c>
       <c r="J346">
-        <f>BSZeroCouponBondWithParams(C346:H346)</f>
+        <f t="shared" si="56"/>
         <v>0.33959552564493911</v>
       </c>
       <c r="K346" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -17513,7 +17520,7 @@
         <v>100</v>
       </c>
       <c r="D347">
-        <f t="shared" ref="D347" si="46">100+B347</f>
+        <f t="shared" ref="D347" si="65">100+B347</f>
         <v>100</v>
       </c>
       <c r="E347">
@@ -17533,12 +17540,338 @@
         <v>0.33287108369807955</v>
       </c>
       <c r="J347">
-        <f>BSZeroCouponBondWithParams(C347:H347)</f>
+        <f t="shared" si="56"/>
         <v>0.33287108369807955</v>
       </c>
       <c r="K347" t="b">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="3:11">
+      <c r="J350" t="s">
+        <v>23</v>
+      </c>
+      <c r="K350" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="351" spans="3:11">
+      <c r="C351">
+        <v>100</v>
+      </c>
+      <c r="D351">
+        <f t="shared" ref="D351" si="66">100+B351</f>
+        <v>100</v>
+      </c>
+      <c r="E351">
+        <v>0.05</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0.15</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+      <c r="I351">
+        <v>10000000</v>
+      </c>
+      <c r="J351">
+        <f t="shared" ref="J351:J359" si="67">MCVanillaCall(C351:I351)</f>
+        <v>8.5911388729850913</v>
+      </c>
+      <c r="K351">
+        <f t="shared" ref="K351:K359" si="68">BSCallWithParams(C351:H351)</f>
+        <v>8.5916594188251452</v>
+      </c>
+    </row>
+    <row r="352" spans="3:11">
+      <c r="C352">
+        <v>100</v>
+      </c>
+      <c r="D352">
+        <f t="shared" ref="D352:D359" si="69">100+B352</f>
+        <v>100</v>
+      </c>
+      <c r="E352">
+        <v>0.05</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0.15</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+      <c r="I352">
+        <v>1000</v>
+      </c>
+      <c r="J352">
+        <f t="shared" si="67"/>
+        <v>8.1965752630487732</v>
+      </c>
+      <c r="K352">
+        <f t="shared" si="68"/>
+        <v>8.5916594188251452</v>
+      </c>
+    </row>
+    <row r="353" spans="2:11">
+      <c r="C353">
+        <v>100</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="69"/>
+        <v>100</v>
+      </c>
+      <c r="E353">
+        <v>0.05</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>0.15</v>
+      </c>
+      <c r="H353">
+        <v>1</v>
+      </c>
+      <c r="I353">
+        <v>10000</v>
+      </c>
+      <c r="J353">
+        <f t="shared" si="67"/>
+        <v>8.718733281095945</v>
+      </c>
+      <c r="K353">
+        <f t="shared" si="68"/>
+        <v>8.5916594188251452</v>
+      </c>
+    </row>
+    <row r="354" spans="2:11">
+      <c r="C354">
+        <v>100</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="69"/>
+        <v>100</v>
+      </c>
+      <c r="E354">
+        <v>0.05</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0.15</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>100000</v>
+      </c>
+      <c r="J354">
+        <f t="shared" si="67"/>
+        <v>8.5922250878491866</v>
+      </c>
+      <c r="K354">
+        <f t="shared" si="68"/>
+        <v>8.5916594188251452</v>
+      </c>
+    </row>
+    <row r="355" spans="2:11">
+      <c r="C355">
+        <v>100</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="69"/>
+        <v>100</v>
+      </c>
+      <c r="E355">
+        <v>0.05</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0.15</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+      <c r="I355">
+        <v>1000000</v>
+      </c>
+      <c r="J355">
+        <f t="shared" si="67"/>
+        <v>8.5873426114878093</v>
+      </c>
+      <c r="K355">
+        <f t="shared" si="68"/>
+        <v>8.5916594188251452</v>
+      </c>
+    </row>
+    <row r="356" spans="2:11">
+      <c r="C356">
+        <v>100</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="69"/>
+        <v>100</v>
+      </c>
+      <c r="E356">
+        <v>0.05</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>0.15</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+      <c r="I356">
+        <v>10000000</v>
+      </c>
+      <c r="J356">
+        <f t="shared" si="67"/>
+        <v>8.5911388729850913</v>
+      </c>
+      <c r="K356">
+        <f t="shared" si="68"/>
+        <v>8.5916594188251452</v>
+      </c>
+    </row>
+    <row r="357" spans="2:11">
+      <c r="C357">
+        <v>100</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="69"/>
+        <v>100</v>
+      </c>
+      <c r="E357">
+        <v>0.05</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>0.15</v>
+      </c>
+      <c r="H357">
+        <v>1</v>
+      </c>
+      <c r="I357">
+        <v>10</v>
+      </c>
+      <c r="J357">
+        <f t="shared" si="67"/>
+        <v>7.2526271187726223</v>
+      </c>
+      <c r="K357">
+        <f t="shared" si="68"/>
+        <v>8.5916594188251452</v>
+      </c>
+    </row>
+    <row r="358" spans="2:11">
+      <c r="C358">
+        <v>100</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="69"/>
+        <v>100</v>
+      </c>
+      <c r="E358">
+        <v>0.05</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0.15</v>
+      </c>
+      <c r="H358">
+        <v>1</v>
+      </c>
+      <c r="I358">
+        <v>10</v>
+      </c>
+      <c r="J358">
+        <f t="shared" si="67"/>
+        <v>7.2526271187726223</v>
+      </c>
+      <c r="K358">
+        <f t="shared" si="68"/>
+        <v>8.5916594188251452</v>
+      </c>
+    </row>
+    <row r="359" spans="2:11">
+      <c r="C359">
+        <v>100</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="69"/>
+        <v>100</v>
+      </c>
+      <c r="E359">
+        <v>0.05</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0.15</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>10</v>
+      </c>
+      <c r="J359">
+        <f t="shared" si="67"/>
+        <v>7.2526271187726223</v>
+      </c>
+      <c r="K359">
+        <f t="shared" si="68"/>
+        <v>8.5916594188251452</v>
+      </c>
+    </row>
+    <row r="361" spans="2:11">
+      <c r="B361">
+        <v>100</v>
+      </c>
+      <c r="C361">
+        <v>0.05</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>0.15</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>10000</v>
+      </c>
+      <c r="I361">
+        <v>100</v>
+      </c>
+      <c r="J361">
+        <f>MCVanillaChoice(B361:I361)</f>
+        <v>3.7036750015272091</v>
       </c>
     </row>
   </sheetData>

--- a/JoshiProject1.xlsx
+++ b/JoshiProject1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Spot</t>
   </si>
@@ -92,6 +92,33 @@
   </si>
   <si>
     <t>BSPrice</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>straddle</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>expiry</t>
+  </si>
+  <si>
+    <t>option name</t>
+  </si>
+  <si>
+    <t>num Paths</t>
   </si>
 </sst>
 </file>
@@ -172,7 +199,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1091772278879601"/>
+          <c:x val="0.10917722788796011"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -1542,11 +1569,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="53856128"/>
+        <c:axId val="54904704"/>
         <c:axId val="55050624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53856128"/>
+        <c:axId val="54904704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +1629,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53856128"/>
+        <c:crossAx val="54904704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1614,7 +1641,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1630,8 +1657,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26891632006966304"/>
-          <c:y val="2.8275009877756649E-2"/>
+          <c:x val="0.26891632006966315"/>
+          <c:y val="2.8275009877756652E-2"/>
           <c:w val="0.6738373047041657"/>
           <c:h val="0.8971166436276885"/>
         </c:manualLayout>
@@ -2994,7 +3021,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3032,8 +3059,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10951222115528771"/>
-          <c:y val="6.4986002424438577E-3"/>
+          <c:x val="0.10951222115528773"/>
+          <c:y val="6.4986002424438595E-3"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -3045,7 +3072,7 @@
           <c:yMode val="edge"/>
           <c:x val="8.4488407699037621E-2"/>
           <c:y val="0.19461706996942271"/>
-          <c:w val="0.85871446655282824"/>
+          <c:w val="0.85871446655282835"/>
           <c:h val="0.63890604507981763"/>
         </c:manualLayout>
       </c:layout>
@@ -3387,7 +3414,7 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:axId val="55106176"/>
-        <c:axId val="55452032"/>
+        <c:axId val="57282944"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="55106176"/>
@@ -3397,12 +3424,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55452032"/>
+        <c:crossAx val="57282944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55452032"/>
+        <c:axId val="57282944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3419,7 +3446,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3773,23 +3800,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="55459200"/>
-        <c:axId val="55481472"/>
+        <c:axId val="57290112"/>
+        <c:axId val="57316480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55459200"/>
+        <c:axId val="57290112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55481472"/>
+        <c:crossAx val="57316480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55481472"/>
+        <c:axId val="57316480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3797,7 +3824,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55459200"/>
+        <c:crossAx val="57290112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3809,7 +3836,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4110,11 +4137,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="55505664"/>
-        <c:axId val="55507584"/>
+        <c:axId val="57475840"/>
+        <c:axId val="57477760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55505664"/>
+        <c:axId val="57475840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,12 +4150,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55507584"/>
+        <c:crossAx val="57477760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55507584"/>
+        <c:axId val="57477760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4138,7 +4165,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55505664"/>
+        <c:crossAx val="57475840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4147,7 +4174,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4593,10 +4620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S361"/>
+  <dimension ref="A1:S364"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B357" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G361" sqref="G361"/>
+      <selection activeCell="I365" sqref="I365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17844,6 +17871,32 @@
         <v>8.5916594188251452</v>
       </c>
     </row>
+    <row r="360" spans="2:11">
+      <c r="B360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C360" t="s">
+        <v>28</v>
+      </c>
+      <c r="D360" t="s">
+        <v>29</v>
+      </c>
+      <c r="E360" t="s">
+        <v>30</v>
+      </c>
+      <c r="F360" t="s">
+        <v>31</v>
+      </c>
+      <c r="G360" t="s">
+        <v>32</v>
+      </c>
+      <c r="H360" t="s">
+        <v>33</v>
+      </c>
+      <c r="I360" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="361" spans="2:11">
       <c r="B361">
         <v>100</v>
@@ -17860,18 +17913,111 @@
       <c r="F361">
         <v>1</v>
       </c>
-      <c r="G361">
-        <v>0</v>
+      <c r="G361" t="s">
+        <v>25</v>
       </c>
       <c r="H361">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="I361">
         <v>100</v>
       </c>
       <c r="J361">
         <f>MCVanillaChoice(B361:I361)</f>
-        <v>3.7036750015272091</v>
+        <v>3.7097594233854667</v>
+      </c>
+      <c r="K361" t="str">
+        <f>MCVanillaChoice()</f>
+        <v>non number cell asked to be a number</v>
+      </c>
+    </row>
+    <row r="362" spans="2:11">
+      <c r="B362">
+        <v>100</v>
+      </c>
+      <c r="C362">
+        <v>0.05</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>0.15</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362" t="s">
+        <v>26</v>
+      </c>
+      <c r="H362">
+        <v>100000</v>
+      </c>
+      <c r="I362">
+        <v>100</v>
+      </c>
+      <c r="J362">
+        <f>MCVanillaChoice(B362:I362)</f>
+        <v>8.5922250878491866</v>
+      </c>
+    </row>
+    <row r="363" spans="2:11">
+      <c r="B363">
+        <v>100</v>
+      </c>
+      <c r="C363">
+        <v>0.05</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>0.15</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363" t="s">
+        <v>27</v>
+      </c>
+      <c r="H363">
+        <v>100000</v>
+      </c>
+      <c r="I363">
+        <v>100</v>
+      </c>
+      <c r="J363">
+        <f>MCVanillaChoice(B363:I363)</f>
+        <v>12.301984511234695</v>
+      </c>
+    </row>
+    <row r="364" spans="2:11">
+      <c r="B364">
+        <v>100</v>
+      </c>
+      <c r="C364">
+        <v>0.05</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>0.15</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+      <c r="G364" t="s">
+        <v>27</v>
+      </c>
+      <c r="H364">
+        <v>100000</v>
+      </c>
+      <c r="I364">
+        <v>90</v>
+      </c>
+      <c r="J364">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/JoshiProject1.xlsx
+++ b/JoshiProject1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Spot</t>
   </si>
@@ -120,6 +120,12 @@
   <si>
     <t>num Paths</t>
   </si>
+  <si>
+    <t>doubledigital</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +205,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10917722788796011"/>
+          <c:x val="0.10917722788796012"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -1569,11 +1575,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="54904704"/>
-        <c:axId val="55050624"/>
+        <c:axId val="55953280"/>
+        <c:axId val="57147776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54904704"/>
+        <c:axId val="55953280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,12 +1604,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55050624"/>
+        <c:crossAx val="57147776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55050624"/>
+        <c:axId val="57147776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1635,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54904704"/>
+        <c:crossAx val="55953280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1641,7 +1647,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1657,7 +1663,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26891632006966315"/>
+          <c:x val="0.26891632006966343"/>
           <c:y val="2.8275009877756652E-2"/>
           <c:w val="0.6738373047041657"/>
           <c:h val="0.8971166436276885"/>
@@ -2985,23 +2991,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="55089024"/>
-        <c:axId val="55090560"/>
+        <c:axId val="57186176"/>
+        <c:axId val="57187712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55089024"/>
+        <c:axId val="57186176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55090560"/>
+        <c:crossAx val="57187712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55090560"/>
+        <c:axId val="57187712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3009,7 +3015,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55089024"/>
+        <c:crossAx val="57186176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3021,7 +3027,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3059,8 +3065,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10951222115528773"/>
-          <c:y val="6.4986002424438595E-3"/>
+          <c:x val="0.1095122211552878"/>
+          <c:y val="6.4986002424438647E-3"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -3072,7 +3078,7 @@
           <c:yMode val="edge"/>
           <c:x val="8.4488407699037621E-2"/>
           <c:y val="0.19461706996942271"/>
-          <c:w val="0.85871446655282835"/>
+          <c:w val="0.85871446655282879"/>
           <c:h val="0.63890604507981763"/>
         </c:manualLayout>
       </c:layout>
@@ -3413,11 +3419,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="55106176"/>
+        <c:axId val="57203328"/>
         <c:axId val="57282944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55106176"/>
+        <c:axId val="57203328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3437,7 +3443,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55106176"/>
+        <c:crossAx val="57203328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3446,7 +3452,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3801,7 +3807,7 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:axId val="57290112"/>
-        <c:axId val="57316480"/>
+        <c:axId val="57320576"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="57290112"/>
@@ -3811,12 +3817,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57316480"/>
+        <c:crossAx val="57320576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57316480"/>
+        <c:axId val="57320576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3836,7 +3842,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4137,11 +4143,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57475840"/>
-        <c:axId val="57477760"/>
+        <c:axId val="58786560"/>
+        <c:axId val="58788480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57475840"/>
+        <c:axId val="58786560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,12 +4156,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57477760"/>
+        <c:crossAx val="58788480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57477760"/>
+        <c:axId val="58788480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,7 +4171,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57475840"/>
+        <c:crossAx val="58786560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4174,7 +4180,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4620,10 +4626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S364"/>
+  <dimension ref="A1:S365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B357" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I365" sqref="I365"/>
+      <selection activeCell="J363" sqref="J363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17926,10 +17932,6 @@
         <f>MCVanillaChoice(B361:I361)</f>
         <v>3.7097594233854667</v>
       </c>
-      <c r="K361" t="str">
-        <f>MCVanillaChoice()</f>
-        <v>non number cell asked to be a number</v>
-      </c>
     </row>
     <row r="362" spans="2:11">
       <c r="B362">
@@ -17996,10 +17998,10 @@
         <v>100</v>
       </c>
       <c r="C364">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E364">
         <v>0.15</v>
@@ -18008,16 +18010,50 @@
         <v>1</v>
       </c>
       <c r="G364" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H364">
         <v>100000</v>
       </c>
       <c r="I364">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J364">
-        <v>110</v>
+        <v>120</v>
+      </c>
+      <c r="K364">
+        <f>MCVanillaChoice(B364:J364)</f>
+        <v>0.82347000000000004</v>
+      </c>
+    </row>
+    <row r="365" spans="2:11">
+      <c r="B365">
+        <v>100</v>
+      </c>
+      <c r="C365">
+        <v>0.05</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>0.15</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365" t="s">
+        <v>35</v>
+      </c>
+      <c r="H365">
+        <v>100000</v>
+      </c>
+      <c r="I365">
+        <v>100</v>
+      </c>
+      <c r="J365">
+        <f>MCVanillaChoice(B365:I365)</f>
+        <v>4.8824656644637052</v>
       </c>
     </row>
   </sheetData>

--- a/JoshiProject1.xlsx
+++ b/JoshiProject1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="7170"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Spot</t>
   </si>
@@ -1575,11 +1575,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="55953280"/>
-        <c:axId val="57147776"/>
+        <c:axId val="53541120"/>
+        <c:axId val="54735616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55953280"/>
+        <c:axId val="53541120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,12 +1604,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57147776"/>
+        <c:crossAx val="54735616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57147776"/>
+        <c:axId val="54735616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1635,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55953280"/>
+        <c:crossAx val="53541120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1647,7 +1647,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1663,7 +1663,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26891632006966343"/>
+          <c:x val="0.26891632006966404"/>
           <c:y val="2.8275009877756652E-2"/>
           <c:w val="0.6738373047041657"/>
           <c:h val="0.8971166436276885"/>
@@ -2991,23 +2991,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57186176"/>
-        <c:axId val="57187712"/>
+        <c:axId val="54757632"/>
+        <c:axId val="54767616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57186176"/>
+        <c:axId val="54757632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57187712"/>
+        <c:crossAx val="54767616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57187712"/>
+        <c:axId val="54767616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,7 +3015,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57186176"/>
+        <c:crossAx val="54757632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3027,7 +3027,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3065,8 +3065,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1095122211552878"/>
-          <c:y val="6.4986002424438647E-3"/>
+          <c:x val="0.10951222115528797"/>
+          <c:y val="6.4986002424438777E-3"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -3078,7 +3078,7 @@
           <c:yMode val="edge"/>
           <c:x val="8.4488407699037621E-2"/>
           <c:y val="0.19461706996942271"/>
-          <c:w val="0.85871446655282879"/>
+          <c:w val="0.85871446655282946"/>
           <c:h val="0.63890604507981763"/>
         </c:manualLayout>
       </c:layout>
@@ -3419,23 +3419,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57203328"/>
-        <c:axId val="57282944"/>
+        <c:axId val="54774784"/>
+        <c:axId val="57479936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57203328"/>
+        <c:axId val="54774784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57282944"/>
+        <c:crossAx val="57479936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57282944"/>
+        <c:axId val="57479936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3443,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57203328"/>
+        <c:crossAx val="54774784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3452,7 +3452,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3806,23 +3806,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57290112"/>
-        <c:axId val="57320576"/>
+        <c:axId val="57516032"/>
+        <c:axId val="57517568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57290112"/>
+        <c:axId val="57516032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57320576"/>
+        <c:crossAx val="57517568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57320576"/>
+        <c:axId val="57517568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3830,7 +3830,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57290112"/>
+        <c:crossAx val="57516032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3842,7 +3842,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4143,11 +4143,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="58786560"/>
-        <c:axId val="58788480"/>
+        <c:axId val="57533568"/>
+        <c:axId val="57535488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58786560"/>
+        <c:axId val="57533568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,12 +4156,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58788480"/>
+        <c:crossAx val="57535488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58788480"/>
+        <c:axId val="57535488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,7 +4171,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58786560"/>
+        <c:crossAx val="57533568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4180,7 +4180,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4626,15 +4626,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S365"/>
+  <dimension ref="A1:S367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B357" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J363" sqref="J363"/>
+    <sheetView tabSelected="1" topLeftCell="B345" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J368" sqref="J368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" customWidth="1"/>
     <col min="18" max="18" width="8.140625" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" customWidth="1"/>
@@ -18054,6 +18054,66 @@
       <c r="J365">
         <f>MCVanillaChoice(B365:I365)</f>
         <v>4.8824656644637052</v>
+      </c>
+    </row>
+    <row r="366" spans="2:11">
+      <c r="B366">
+        <v>100</v>
+      </c>
+      <c r="C366">
+        <v>0.05</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>0.15</v>
+      </c>
+      <c r="F366">
+        <v>1</v>
+      </c>
+      <c r="G366" t="s">
+        <v>35</v>
+      </c>
+      <c r="H366">
+        <v>10000</v>
+      </c>
+      <c r="I366">
+        <v>100</v>
+      </c>
+      <c r="J366">
+        <f>MCVanillaChoice(B366:I366)</f>
+        <v>5.0150582795687368</v>
+      </c>
+    </row>
+    <row r="367" spans="2:11">
+      <c r="B367">
+        <v>100</v>
+      </c>
+      <c r="C367">
+        <v>0.05</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>0.15</v>
+      </c>
+      <c r="F367">
+        <v>1</v>
+      </c>
+      <c r="G367" t="s">
+        <v>25</v>
+      </c>
+      <c r="H367">
+        <v>100000</v>
+      </c>
+      <c r="I367">
+        <v>100</v>
+      </c>
+      <c r="J367">
+        <f>MCVanillaChoice(B367:I367)</f>
+        <v>3.7097594233854667</v>
       </c>
     </row>
   </sheetData>
